--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -94,21 +94,24 @@
     <t>Dragon</t>
   </si>
   <si>
+    <t>MissGalaxy</t>
+  </si>
+  <si>
+    <t>MissGalaxyGreen</t>
+  </si>
+  <si>
     <t>SpiderRed</t>
   </si>
   <si>
     <t>SpiderGreen</t>
   </si>
   <si>
-    <t>MissGalaxyGreen</t>
-  </si>
-  <si>
-    <t>MissGalaxy</t>
-  </si>
-  <si>
     <t>Spider</t>
   </si>
   <si>
+    <t>DarkRedBat</t>
+  </si>
+  <si>
     <t>RedGoldBat</t>
   </si>
   <si>
@@ -118,21 +121,24 @@
     <t xml:space="preserve"> "Dragon</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MissGalaxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MissGalaxyGreen</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "SpiderRed</t>
   </si>
   <si>
     <t xml:space="preserve"> "SpiderGreen</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MissGalaxyGreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MissGalaxy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Spider</t>
   </si>
   <si>
+    <t xml:space="preserve"> "DarkRedBat</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "RedGoldBat</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
+    <t xml:space="preserve"> GOLD_ITEM_TYPE.GoldBar</t>
+  </si>
+  <si>
     <t xml:space="preserve"> null</t>
   </si>
   <si>
@@ -169,18 +178,21 @@
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.05</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standardShine</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.standardShine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.redShine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> true</t>
   </si>
   <si>
@@ -196,19 +208,19 @@
     <t xml:space="preserve"> Blue3D_Bouncer</t>
   </si>
   <si>
+    <t xml:space="preserve"> BouncingMissile</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Missile</t>
   </si>
   <si>
-    <t xml:space="preserve"> BouncingMissile</t>
-  </si>
-  <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
   </si>
   <si>
+    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
+  </si>
+  <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.RedFireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
   </si>
 </sst>
 </file>
@@ -566,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,25 +666,28 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2">
+        <v>920</v>
+      </c>
+      <c r="I2">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -681,49 +696,49 @@
         <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V2">
-        <v>35</v>
+        <v>945</v>
       </c>
       <c r="W2">
-        <v>2.828571428571429</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="X2">
-        <v>2.2</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="Y2">
-        <v>0.2857142857142857</v>
+        <v>0.001058201058201058</v>
       </c>
       <c r="Z2">
-        <v>330</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -731,61 +746,73 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>98</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="W3">
-        <v>0.08333333333333333</v>
+        <v>0.9611650485436893</v>
       </c>
       <c r="X3">
-        <v>0.05882352941176471</v>
+        <v>0.8761061946902655</v>
       </c>
       <c r="Y3">
-        <v>0.4166666666666667</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -793,61 +820,73 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G4">
+        <v>910</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>68</v>
       </c>
       <c r="V4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W4">
-        <v>0.08333333333333333</v>
+        <v>6.1875</v>
       </c>
       <c r="X4">
-        <v>0.05882352941176471</v>
+        <v>0.1069114470842333</v>
       </c>
       <c r="Y4">
-        <v>0.4166666666666667</v>
+        <v>56.875</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -855,13 +894,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -870,55 +912,43 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" t="s">
         <v>58</v>
       </c>
-      <c r="T5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" t="s">
-        <v>63</v>
+      <c r="P5" t="s">
+        <v>59</v>
       </c>
       <c r="V5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W5">
-        <v>6.1875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X5">
-        <v>3.807692307692307</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Y5">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z5">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -926,70 +956,61 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6">
         <v>8</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>99</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6">
-        <v>13</v>
-      </c>
       <c r="W6">
-        <v>7.615384615384615</v>
+        <v>0.625</v>
       </c>
       <c r="X6">
-        <v>4.304347826086956</v>
+        <v>0.3125</v>
       </c>
       <c r="Y6">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -997,19 +1018,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1021,34 +1042,34 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V7">
         <v>4</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.1111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="Y7">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1059,25 +1080,25 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1086,31 +1107,31 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1121,26 +1142,26 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -1148,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1175,6 +1196,68 @@
         <v>2</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Dragon</t>
   </si>
   <si>
-    <t>MissGalaxy</t>
-  </si>
-  <si>
-    <t>MissGalaxyGreen</t>
-  </si>
-  <si>
     <t>SpiderRed</t>
   </si>
   <si>
@@ -121,12 +115,6 @@
     <t xml:space="preserve"> "Dragon</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MissGalaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MissGalaxyGreen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "SpiderRed</t>
   </si>
   <si>
@@ -151,7 +139,7 @@
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> GOLD_ITEM_TYPE.GoldBar</t>
+    <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
     <t xml:space="preserve"> null</t>
@@ -160,67 +148,43 @@
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Ow</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.15</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.standardShine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
     <t xml:space="preserve"> true</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17</t>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
   </si>
   <si>
     <t xml:space="preserve"> Blue3D_Bouncer</t>
   </si>
   <si>
-    <t xml:space="preserve"> BouncingMissile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Missile</t>
-  </si>
-  <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.RedFireball</t>
   </si>
 </sst>
 </file>
@@ -578,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,79 +630,79 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>920</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>99</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
       <c r="V2">
-        <v>945</v>
+        <v>19</v>
       </c>
       <c r="W2">
-        <v>0.1047619047619048</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="X2">
-        <v>0.1046511627906977</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Y2">
-        <v>0.001058201058201058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="Z2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -746,73 +710,61 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
-      </c>
       <c r="V3">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="W3">
-        <v>0.9611650485436893</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X3">
-        <v>0.8761061946902655</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Y3">
-        <v>0.0970873786407767</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z3">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -820,73 +772,61 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>910</v>
+        <v>8</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>99</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4">
-        <v>16</v>
-      </c>
       <c r="W4">
-        <v>6.1875</v>
+        <v>0.625</v>
       </c>
       <c r="X4">
-        <v>0.1069114470842333</v>
+        <v>0.3125</v>
       </c>
       <c r="Y4">
-        <v>56.875</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -894,58 +834,58 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="V5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W5">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.4545454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="Y5">
-        <v>0.8333333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -956,58 +896,58 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
+      <c r="D6" t="s">
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6">
-        <v>8</v>
-      </c>
-      <c r="W6">
-        <v>0.625</v>
-      </c>
       <c r="X6">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1018,58 +958,58 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
         <v>46</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
       <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1080,184 +1020,60 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" t="s">
-        <v>55</v>
-      </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y8">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Dragon</t>
   </si>
   <si>
+    <t>MadHandy</t>
+  </si>
+  <si>
     <t>SpiderRed</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t xml:space="preserve"> "Dragon</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MadHandy</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "SpiderRed</t>
   </si>
   <si>
@@ -148,12 +154,18 @@
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
+    <t xml:space="preserve"> "HumanAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Ow</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
@@ -169,7 +181,13 @@
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standardShine</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> false</t>
   </si>
   <si>
     <t xml:space="preserve"> true</t>
@@ -542,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,16 +648,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -660,34 +678,34 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="V2">
         <v>19</v>
@@ -710,58 +728,61 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W3">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="X3">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Y3">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -772,58 +793,58 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W4">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X4">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -834,58 +855,58 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W5">
+        <v>0.625</v>
+      </c>
+      <c r="X5">
+        <v>0.3125</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0.4</v>
-      </c>
-      <c r="Y5">
-        <v>1.5</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -896,25 +917,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -923,31 +941,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Y6">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -958,25 +979,25 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -985,31 +1006,31 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1020,26 +1041,26 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -1047,22 +1068,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1074,6 +1095,68 @@
         <v>2</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +91,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>MissGalaxy</t>
+  </si>
+  <si>
     <t>Dragon</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MissGalaxy</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Dragon</t>
   </si>
   <si>
@@ -145,25 +151,31 @@
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
-    <t xml:space="preserve"> null</t>
+    <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
+    <t xml:space="preserve"> "FemaleAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Ow</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Ow</t>
+    <t xml:space="preserve"> "HurtScream</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.0</t>
@@ -178,12 +190,12 @@
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standardShine</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.standardShine</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
@@ -193,13 +205,22 @@
     <t xml:space="preserve"> true</t>
   </si>
   <si>
+    <t xml:space="preserve"> 5</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7</t>
   </si>
   <si>
     <t xml:space="preserve"> 6</t>
   </si>
   <si>
+    <t xml:space="preserve"> BouncingMissile</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Blue3D_Bouncer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
@@ -560,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,16 +669,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -666,61 +684,58 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="V2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W2">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Y2">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="Z2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -728,64 +743,79 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>69</v>
       </c>
       <c r="V3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W3">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="X3">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Y3">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -793,58 +823,61 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
       </c>
       <c r="V4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W4">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="X4">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Y4">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -855,58 +888,58 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W5">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X5">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -917,58 +950,58 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="X6">
-        <v>0.4</v>
+        <v>0.3125</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -979,25 +1012,22 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1006,31 +1036,34 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s">
+        <v>61</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Y7">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1041,25 +1074,25 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1068,31 +1101,31 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1103,26 +1136,26 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -1130,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1157,6 +1190,68 @@
         <v>2</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -76,6 +76,9 @@
     <t>missileType</t>
   </si>
   <si>
+    <t>shoot3D</t>
+  </si>
+  <si>
     <t>ADM</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>DarkMadHandy</t>
+  </si>
+  <si>
     <t>MissGalaxy</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "DarkMadHandy</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MissGalaxy</t>
   </si>
   <si>
@@ -157,25 +166,25 @@
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "FemaleAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "FemaleAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "HurtScream</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
     <t xml:space="preserve"> "MonsterHurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "HurtScream</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.0</t>
@@ -581,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,96 +672,87 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
       <c r="I2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2">
+        <v>64</v>
+      </c>
+      <c r="W2">
         <v>20</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
       <c r="X2">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z2">
-        <v>35</v>
+        <v>0.8</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -761,338 +761,353 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
         <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="W3">
-        <v>1.052631578947368</v>
+        <v>20</v>
       </c>
       <c r="X3">
-        <v>0.5882352941176471</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.7894736842105263</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z3">
-        <v>30</v>
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" t="s">
+        <v>65</v>
       </c>
       <c r="W4">
-        <v>1.071428571428571</v>
+        <v>19</v>
       </c>
       <c r="X4">
-        <v>0.5769230769230769</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y4">
-        <v>0.8571428571428571</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="AA4">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5">
+        <v>14</v>
+      </c>
+      <c r="X5">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="Y5">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="Z5">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6">
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Y6">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="Z6">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="M5" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5">
-        <v>12</v>
-      </c>
-      <c r="W5">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="X5">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="Y5">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="Z5">
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>0.625</v>
+      </c>
+      <c r="Y7">
+        <v>0.3125</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6">
-        <v>8</v>
-      </c>
-      <c r="W6">
-        <v>0.625</v>
-      </c>
-      <c r="X6">
-        <v>0.3125</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7">
-        <v>4</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0.4</v>
-      </c>
-      <c r="Y7">
-        <v>1.5</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1101,157 +1116,222 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
         <v>57</v>
       </c>
       <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0.4</v>
+      </c>
+      <c r="Z8">
+        <v>1.5</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="V8">
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W9">
         <v>3</v>
       </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
         <v>0.375</v>
       </c>
-      <c r="Y8">
+      <c r="Z9">
         <v>1.666666666666667</v>
       </c>
-      <c r="Z8">
+      <c r="AA9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" spans="1:27">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9">
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="W10">
         <v>2</v>
       </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Y9">
+      <c r="Z10">
         <v>2</v>
       </c>
-      <c r="Z9">
+      <c r="AA10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="11" spans="1:27">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Y10">
+      <c r="Z11">
         <v>2</v>
       </c>
-      <c r="Z10">
+      <c r="AA11">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -94,9 +94,15 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>MissGalaxyGreen</t>
+  </si>
+  <si>
     <t>DarkMadHandy</t>
   </si>
   <si>
+    <t>MissGalaxyGreenBouncer</t>
+  </si>
+  <si>
     <t>MissGalaxy</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>SpiderRed</t>
   </si>
   <si>
+    <t>BigBat</t>
+  </si>
+  <si>
     <t>SpiderGreen</t>
   </si>
   <si>
@@ -124,9 +133,15 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MissGalaxyGreen</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "DarkMadHandy</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MissGalaxyGreenBouncer</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MissGalaxy</t>
   </si>
   <si>
@@ -139,6 +154,9 @@
     <t xml:space="preserve"> "SpiderRed</t>
   </si>
   <si>
+    <t xml:space="preserve"> "BigBat</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "SpiderGreen</t>
   </si>
   <si>
@@ -166,18 +184,27 @@
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "FemaleAttack3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "FemaleAttack2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "HumanAttack1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "FemaleAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Ow2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "HurtScream</t>
   </si>
   <si>
@@ -187,15 +214,15 @@
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.15</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
@@ -223,10 +250,16 @@
     <t xml:space="preserve"> 6</t>
   </si>
   <si>
+    <t xml:space="preserve"> Missile</t>
+  </si>
+  <si>
     <t xml:space="preserve"> BouncingMissile</t>
   </si>
   <si>
     <t xml:space="preserve"> Blue3D_Bouncer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMMON_ITEM_TYPE.RedFireball</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
@@ -590,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,64 +714,73 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
       </c>
       <c r="W2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y2">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -746,58 +788,49 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
       <c r="I3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="P3" t="s">
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W3">
         <v>20</v>
@@ -806,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -820,82 +853,73 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="W4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="X4">
-        <v>1.052631578947368</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y4">
-        <v>0.5882352941176471</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z4">
-        <v>0.7894736842105263</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA4">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -903,64 +927,73 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
       <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
       <c r="K5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
       </c>
       <c r="W5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="X5">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z5">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -968,61 +1001,82 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
       <c r="I6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" t="s">
+        <v>74</v>
       </c>
       <c r="W6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X6">
-        <v>0.8333333333333334</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y6">
-        <v>0.4545454545454545</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z6">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1030,58 +1084,61 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>73</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X7">
-        <v>0.625</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y7">
-        <v>0.3125</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1092,58 +1149,58 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y8">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z8">
-        <v>1.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1154,58 +1211,58 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y9">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z9">
-        <v>1.666666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1216,58 +1273,58 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X10">
+        <v>0.625</v>
+      </c>
+      <c r="Y10">
+        <v>0.3125</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1278,25 +1335,22 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1305,33 +1359,222 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
       <c r="Y11">
+        <v>0.4</v>
+      </c>
+      <c r="Z11">
+        <v>1.5</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0.375</v>
+      </c>
+      <c r="Z12">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <v>2</v>
       </c>
-      <c r="AA11">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>WolfSpider</t>
+  </si>
+  <si>
     <t>MissGalaxyGreen</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "WolfSpider</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MissGalaxyGreen</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "FemaleAttack3</t>
   </si>
   <si>
@@ -193,15 +202,15 @@
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "FemaleAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Ow2</t>
   </si>
   <si>
@@ -211,7 +220,7 @@
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterHurt</t>
+    <t xml:space="preserve"> 1.15</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.1</t>
@@ -220,19 +229,16 @@
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standard</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.standardShine</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
     <t xml:space="preserve"> false</t>
@@ -623,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,73 +720,61 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
         <v>75</v>
       </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
       <c r="W2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA2">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -788,64 +782,73 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" t="s">
         <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" t="s">
+        <v>83</v>
       </c>
       <c r="W3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y3">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -853,73 +856,64 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>15</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
         <v>75</v>
       </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" t="s">
-        <v>82</v>
-      </c>
       <c r="W4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X4">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z4">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -927,73 +921,73 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
       <c r="I5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y5">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA5">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1001,16 +995,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1019,64 +1010,58 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="s">
         <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="W6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X6">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z6">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1084,64 +1069,82 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" t="s">
+        <v>76</v>
       </c>
       <c r="W7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X7">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y7">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z7">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1149,58 +1152,61 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
       </c>
       <c r="W8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X8">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y8">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z8">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1211,16 +1217,13 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1229,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1241,28 +1244,31 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
         <v>72</v>
       </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
       <c r="W9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X9">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y9">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z9">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1273,58 +1279,58 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
       </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
-        <v>73</v>
-      </c>
       <c r="W10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X10">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y10">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1335,58 +1341,58 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
         <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X11">
+        <v>0.625</v>
+      </c>
+      <c r="Y11">
+        <v>0.3125</v>
+      </c>
+      <c r="Z11">
         <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0.4</v>
-      </c>
-      <c r="Z11">
-        <v>1.5</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1397,25 +1403,22 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1424,31 +1427,34 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O12" t="s">
         <v>72</v>
       </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
       <c r="W12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z12">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1459,25 +1465,25 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1486,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O13" t="s">
         <v>72</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z13">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1521,26 +1527,26 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
@@ -1548,22 +1554,22 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O14" t="s">
         <v>72</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -1575,6 +1581,68 @@
         <v>2</v>
       </c>
       <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>WolfSpideGreen</t>
+  </si>
+  <si>
     <t>WolfSpider</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "WolfSpideGreen</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "WolfSpider</t>
   </si>
   <si>
@@ -220,10 +226,10 @@
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.0</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,58 +726,58 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y2">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z2">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -782,73 +788,61 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="S3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s">
-        <v>83</v>
-      </c>
       <c r="W3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -856,64 +850,73 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
         <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s">
         <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="R4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" t="s">
+        <v>85</v>
       </c>
       <c r="W4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y4">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -921,73 +924,64 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>15</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" t="s">
         <v>77</v>
       </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" t="s">
-        <v>84</v>
-      </c>
       <c r="W5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X5">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z5">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -995,31 +989,31 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
       <c r="I6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -1031,37 +1025,37 @@
         <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W6">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y6">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA6">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1069,16 +1063,13 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1087,64 +1078,58 @@
         <v>15</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" t="s">
         <v>75</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X7">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z7">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1152,64 +1137,82 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
         <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
       </c>
       <c r="W8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X8">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y8">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z8">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1217,58 +1220,61 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
       </c>
       <c r="W9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X9">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y9">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z9">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1279,16 +1285,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1297,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1309,28 +1312,31 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
       </c>
       <c r="W10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X10">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y10">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z10">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1341,58 +1347,58 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X11">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y11">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1403,58 +1409,58 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
         <v>70</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X12">
+        <v>0.625</v>
+      </c>
+      <c r="Y12">
+        <v>0.3125</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0.4</v>
-      </c>
-      <c r="Z12">
-        <v>1.5</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1465,25 +1471,22 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1492,31 +1495,34 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z13">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1527,25 +1533,25 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1554,31 +1560,31 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1589,26 +1595,26 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
@@ -1616,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>1</v>
@@ -1643,6 +1649,68 @@
         <v>2</v>
       </c>
       <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>Viking</t>
+  </si>
+  <si>
     <t>WolfSpideGreen</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Viking</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "WolfSpideGreen</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "HumanAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
@@ -205,15 +214,15 @@
     <t xml:space="preserve"> "FemaleAttack2</t>
   </si>
   <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "FemaleAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
@@ -226,15 +235,15 @@
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.15</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
@@ -247,10 +256,10 @@
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
+    <t xml:space="preserve"> true</t>
+  </si>
+  <si>
     <t xml:space="preserve"> false</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> true</t>
   </si>
   <si>
     <t xml:space="preserve"> 5</t>
@@ -635,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,58 +735,55 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X2">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z2">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -788,58 +794,58 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y3">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z3">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -850,73 +856,61 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
         <v>81</v>
       </c>
-      <c r="T4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" t="s">
-        <v>85</v>
-      </c>
       <c r="W4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA4">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -924,64 +918,73 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
       </c>
       <c r="W5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y5">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z5">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -989,73 +992,64 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>15</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" t="s">
         <v>81</v>
       </c>
-      <c r="T6" t="s">
-        <v>83</v>
-      </c>
-      <c r="U6" t="s">
-        <v>86</v>
-      </c>
       <c r="W6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X6">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z6">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1063,73 +1057,73 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
       <c r="I7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y7">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA7">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1137,16 +1131,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1155,64 +1146,58 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
-      </c>
-      <c r="V8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="W8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X8">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z8">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1220,64 +1205,82 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" t="s">
+        <v>80</v>
       </c>
       <c r="W9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X9">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y9">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z9">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1285,58 +1288,61 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
       </c>
       <c r="W10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X10">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y10">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z10">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1347,16 +1353,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1365,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1377,28 +1380,31 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>81</v>
       </c>
       <c r="W11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X11">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y11">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z11">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1409,58 +1415,58 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="s">
         <v>77</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X12">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y12">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1471,58 +1477,58 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X13">
+        <v>0.625</v>
+      </c>
+      <c r="Y13">
+        <v>0.3125</v>
+      </c>
+      <c r="Z13">
         <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>0.4</v>
-      </c>
-      <c r="Z13">
-        <v>1.5</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1533,25 +1539,22 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1560,31 +1563,34 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
         <v>73</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>81</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z14">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1595,25 +1601,25 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1622,31 +1628,31 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1657,26 +1663,26 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
@@ -1684,22 +1690,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>1</v>
@@ -1711,6 +1717,68 @@
         <v>2</v>
       </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>RedDragon</t>
+  </si>
+  <si>
     <t>Viking</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "RedDragon</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Viking</t>
   </si>
   <si>
@@ -196,18 +202,21 @@
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
+    <t xml:space="preserve"> GOLD_ITEM_TYPE.GoldBar</t>
+  </si>
+  <si>
     <t xml:space="preserve"> null</t>
   </si>
   <si>
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "FemaleAttack3</t>
   </si>
   <si>
@@ -220,12 +229,12 @@
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt2</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterHurt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Ow2</t>
   </si>
   <si>
@@ -247,21 +256,24 @@
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.gold</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.standardShine</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.gold</t>
-  </si>
-  <si>
     <t xml:space="preserve"> true</t>
   </si>
   <si>
     <t xml:space="preserve"> false</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
@@ -271,22 +283,22 @@
     <t xml:space="preserve"> 6</t>
   </si>
   <si>
+    <t xml:space="preserve"> Blue3D_Bouncer</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Missile</t>
   </si>
   <si>
     <t xml:space="preserve"> BouncingMissile</t>
   </si>
   <si>
-    <t xml:space="preserve"> Blue3D_Bouncer</t>
+    <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.RedFireball</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
   </si>
 </sst>
 </file>
@@ -644,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,58 +747,82 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" t="s">
+        <v>83</v>
       </c>
       <c r="W2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="Z2">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -794,58 +830,55 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X3">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z3">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -856,58 +889,58 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y4">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z4">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -918,73 +951,61 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
         <v>84</v>
       </c>
-      <c r="T5" t="s">
-        <v>85</v>
-      </c>
-      <c r="U5" t="s">
-        <v>88</v>
-      </c>
       <c r="W5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA5">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -992,64 +1013,73 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" t="s">
+        <v>93</v>
       </c>
       <c r="W6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y6">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1057,73 +1087,64 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>15</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>84</v>
       </c>
       <c r="Q7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" t="s">
-        <v>82</v>
-      </c>
-      <c r="S7" t="s">
         <v>84</v>
       </c>
-      <c r="T7" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" t="s">
-        <v>89</v>
-      </c>
       <c r="W7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X7">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z7">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1131,73 +1152,73 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
       <c r="I8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8">
+        <v>28</v>
+      </c>
+      <c r="X8">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="Y8">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="Z8">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="AA8">
         <v>80</v>
-      </c>
-      <c r="R8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" t="s">
-        <v>86</v>
-      </c>
-      <c r="U8" t="s">
-        <v>89</v>
-      </c>
-      <c r="W8">
-        <v>20</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z8">
-        <v>0.75</v>
-      </c>
-      <c r="AA8">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1205,16 +1226,13 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1223,64 +1241,58 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>90</v>
-      </c>
-      <c r="V9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="W9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X9">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z9">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1288,64 +1300,82 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" t="s">
         <v>71</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
       </c>
       <c r="W10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X10">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y10">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z10">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1353,58 +1383,61 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>84</v>
       </c>
       <c r="W11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X11">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y11">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z11">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1415,16 +1448,13 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1433,10 +1463,10 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1445,28 +1475,31 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
       </c>
       <c r="W12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X12">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y12">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z12">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1477,58 +1510,58 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
       </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" t="s">
         <v>81</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X13">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y13">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1539,58 +1572,58 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X14">
+        <v>0.625</v>
+      </c>
+      <c r="Y14">
+        <v>0.3125</v>
+      </c>
+      <c r="Z14">
         <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>0.4</v>
-      </c>
-      <c r="Z14">
-        <v>1.5</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1601,25 +1634,22 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1628,31 +1658,34 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N15" t="s">
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="P15" t="s">
+        <v>84</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z15">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1663,25 +1696,25 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1690,31 +1723,31 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z16">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1725,26 +1758,26 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -1752,22 +1785,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -1779,6 +1812,68 @@
         <v>2</v>
       </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>PurpleGalaxy</t>
+  </si>
+  <si>
     <t>RedDragon</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "PurpleGalaxy</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "RedDragon</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t xml:space="preserve"> "Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MissGhostFace</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 0.25</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Banshee</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
@@ -229,6 +241,9 @@
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "PiercingScream</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
@@ -244,6 +259,9 @@
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
@@ -256,49 +274,55 @@
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standardShine</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.standardShine</t>
+    <t xml:space="preserve"> false</t>
   </si>
   <si>
     <t xml:space="preserve"> true</t>
   </si>
   <si>
-    <t xml:space="preserve"> false</t>
+    <t xml:space="preserve"> 15</t>
   </si>
   <si>
     <t xml:space="preserve"> 8</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7</t>
+    <t xml:space="preserve"> 17</t>
   </si>
   <si>
     <t xml:space="preserve"> 6</t>
   </si>
   <si>
+    <t xml:space="preserve"> BouncingMissile</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Blue3D_Bouncer</t>
   </si>
   <si>
     <t xml:space="preserve"> Missile</t>
   </si>
   <si>
-    <t xml:space="preserve"> BouncingMissile</t>
+    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
   </si>
   <si>
     <t xml:space="preserve"> COMMON_ITEM_TYPE.RedFireball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
   </si>
 </sst>
 </file>
@@ -656,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,82 +771,73 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>35</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Y2">
         <v>0.625</v>
       </c>
       <c r="Z2">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AA2">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -830,58 +845,82 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" t="s">
+        <v>90</v>
       </c>
       <c r="W3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="Z3">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -889,58 +928,55 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X4">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z4">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -951,58 +987,58 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y5">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z5">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1013,73 +1049,61 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" t="s">
         <v>88</v>
       </c>
-      <c r="T6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" t="s">
-        <v>93</v>
+      <c r="P6" t="s">
+        <v>89</v>
       </c>
       <c r="W6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA6">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1087,64 +1111,73 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" t="s">
+        <v>102</v>
       </c>
       <c r="W7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y7">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1152,73 +1185,64 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>15</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" t="s">
-        <v>91</v>
-      </c>
-      <c r="U8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X8">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z8">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1226,73 +1250,73 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
       <c r="I9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="U9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="W9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y9">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA9">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1300,16 +1324,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1318,64 +1339,58 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="S10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="U10" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="W10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X10">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z10">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA10">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1383,64 +1398,82 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
         <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>96</v>
+      </c>
+      <c r="T11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" t="s">
+        <v>101</v>
+      </c>
+      <c r="V11" t="s">
+        <v>90</v>
       </c>
       <c r="W11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X11">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y11">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z11">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1448,58 +1481,61 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>89</v>
       </c>
       <c r="W12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X12">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y12">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z12">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1510,16 +1546,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1528,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1540,28 +1573,31 @@
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
       </c>
       <c r="W13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X13">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y13">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z13">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1572,58 +1608,58 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
       </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X14">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y14">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1634,58 +1670,58 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
         <v>6</v>
       </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X15">
+        <v>0.625</v>
+      </c>
+      <c r="Y15">
+        <v>0.3125</v>
+      </c>
+      <c r="Z15">
         <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>0.4</v>
-      </c>
-      <c r="Z15">
-        <v>1.5</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1696,25 +1732,22 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1723,31 +1756,34 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>89</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z16">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1758,25 +1794,25 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1785,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1820,26 +1856,26 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
@@ -1847,22 +1883,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18">
         <v>1</v>
@@ -1874,6 +1910,68 @@
         <v>2</v>
       </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +97,9 @@
     <t>PurpleGalaxy</t>
   </si>
   <si>
+    <t>Wolf</t>
+  </si>
+  <si>
     <t>RedDragon</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t xml:space="preserve"> "PurpleGalaxy</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Wolf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "RedDragon</t>
   </si>
   <si>
@@ -244,6 +250,9 @@
     <t xml:space="preserve"> "PiercingScream</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt3</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
@@ -262,12 +271,12 @@
     <t xml:space="preserve"> 1.2</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.15</t>
   </si>
   <si>
@@ -277,10 +286,10 @@
     <t xml:space="preserve"> MATERIAL.standardShine</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standard</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.standard</t>
   </si>
   <si>
     <t xml:space="preserve"> false</t>
@@ -680,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,13 +780,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -798,31 +807,34 @@
         <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="W2">
         <v>61</v>
@@ -845,19 +857,16 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -866,61 +875,43 @@
         <v>35</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" t="s">
         <v>92</v>
       </c>
-      <c r="S3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" t="s">
-        <v>90</v>
-      </c>
       <c r="W3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Y3">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="Z3">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AA3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -928,58 +919,82 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" t="s">
+        <v>93</v>
       </c>
       <c r="W4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="Z4">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -987,58 +1002,55 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z5">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1049,58 +1061,58 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y6">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z6">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1111,73 +1123,61 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
         <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" t="s">
         <v>90</v>
       </c>
-      <c r="R7" t="s">
-        <v>93</v>
-      </c>
-      <c r="S7" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U7" t="s">
-        <v>102</v>
+      <c r="P7" t="s">
+        <v>92</v>
       </c>
       <c r="W7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA7">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1185,64 +1185,73 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" t="s">
         <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="R8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U8" t="s">
+        <v>105</v>
       </c>
       <c r="W8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y8">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1250,73 +1259,64 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>15</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="W9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X9">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z9">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1324,73 +1324,73 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
-        <v>12</v>
-      </c>
       <c r="I10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10">
+        <v>28</v>
+      </c>
+      <c r="X10">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="Y10">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="Z10">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="AA10">
         <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" t="s">
-        <v>100</v>
-      </c>
-      <c r="W10">
-        <v>20</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z10">
-        <v>0.75</v>
-      </c>
-      <c r="AA10">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1398,16 +1398,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1416,64 +1413,58 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
         <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="U11" t="s">
-        <v>101</v>
-      </c>
-      <c r="V11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="W11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X11">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1481,64 +1472,82 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q12" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="R12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S12" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U12" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" t="s">
+        <v>93</v>
       </c>
       <c r="W12">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X12">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y12">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z12">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1546,58 +1555,61 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>92</v>
       </c>
       <c r="W13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X13">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y13">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z13">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1608,16 +1620,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1626,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1638,28 +1647,31 @@
         <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>92</v>
       </c>
       <c r="W14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X14">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y14">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z14">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1670,58 +1682,58 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
       </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s">
         <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X15">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y15">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1732,58 +1744,58 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X16">
+        <v>0.625</v>
+      </c>
+      <c r="Y16">
+        <v>0.3125</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>0.4</v>
-      </c>
-      <c r="Z16">
-        <v>1.5</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1794,25 +1806,22 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1821,31 +1830,34 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>92</v>
       </c>
       <c r="W17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z17">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1856,25 +1868,25 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1883,31 +1895,31 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -1918,26 +1930,26 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
@@ -1945,22 +1957,22 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19">
         <v>1</v>
@@ -1972,6 +1984,68 @@
         <v>2</v>
       </c>
       <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,15 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>AngrySheep</t>
+  </si>
+  <si>
+    <t>CyGirl</t>
+  </si>
+  <si>
+    <t>GreenWolf</t>
+  </si>
+  <si>
     <t>PurpleGalaxy</t>
   </si>
   <si>
@@ -151,12 +160,18 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "AngrySheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CyGirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Wolf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "PurpleGalaxy</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Wolf</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "RedDragon</t>
   </si>
   <si>
@@ -208,6 +223,9 @@
     <t xml:space="preserve"> "Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Sheep</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "MissGhostFace</t>
   </si>
   <si>
@@ -217,24 +235,24 @@
     <t xml:space="preserve"> 0.5</t>
   </si>
   <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
     <t xml:space="preserve"> GOLD_ITEM_TYPE.GoldBar</t>
   </si>
   <si>
-    <t xml:space="preserve"> null</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "HumanAttack1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Banshee</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "FemaleAttack3</t>
   </si>
   <si>
@@ -247,12 +265,18 @@
     <t xml:space="preserve"> "BatAttack</t>
   </si>
   <si>
+    <t xml:space="preserve"> "PainSqueek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Ow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterHurt3</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "PiercingScream</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterHurt3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "MonsterHurt</t>
   </si>
   <si>
@@ -265,7 +289,13 @@
     <t xml:space="preserve"> "HurtScream</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Ow</t>
+    <t xml:space="preserve"> 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.2</t>
@@ -274,19 +304,19 @@
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.15</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.05</t>
   </si>
   <si>
+    <t xml:space="preserve"> MATERIAL.standard</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MATERIAL.standardShine</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL.standard</t>
+    <t xml:space="preserve"> MATERIAL.greenFluence</t>
   </si>
   <si>
     <t xml:space="preserve"> MATERIAL.gold</t>
@@ -298,10 +328,10 @@
     <t xml:space="preserve"> true</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
   </si>
   <si>
     <t xml:space="preserve"> 7</t>
@@ -689,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,76 +810,61 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2">
-        <v>61</v>
-      </c>
       <c r="X2">
-        <v>0.9836065573770492</v>
+        <v>0.6</v>
       </c>
       <c r="Y2">
-        <v>0.625</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Z2">
-        <v>0.5737704918032787</v>
+        <v>0.1</v>
       </c>
       <c r="AA2">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -857,61 +872,76 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" t="s">
+        <v>113</v>
       </c>
       <c r="W3">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="X3">
-        <v>1.063829787234043</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Y3">
-        <v>0.6493506493506493</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="Z3">
-        <v>0.6382978723404256</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -919,82 +949,61 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W4">
-        <v>50</v>
-      </c>
       <c r="X4">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Y4">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Z4">
-        <v>0.6</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AA4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1002,58 +1011,76 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" t="s">
+        <v>113</v>
       </c>
       <c r="W5">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Y5">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="Z5">
-        <v>0.625</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1061,58 +1088,58 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W6">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="X6">
-        <v>0.9090909090909091</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Y6">
-        <v>0.5660377358490566</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="Z6">
-        <v>0.6060606060606061</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1123,61 +1150,82 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" t="s">
+        <v>114</v>
+      </c>
+      <c r="V7" t="s">
+        <v>103</v>
       </c>
       <c r="W7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.6097560975609756</v>
+        <v>0.625</v>
       </c>
       <c r="Z7">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1185,73 +1233,58 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
       <c r="K8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s">
         <v>102</v>
-      </c>
-      <c r="U8" t="s">
-        <v>105</v>
       </c>
       <c r="W8">
         <v>40</v>
       </c>
       <c r="X8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.4285714285714285</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AA8">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1259,61 +1292,58 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y9">
-        <v>0.5555555555555556</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1324,73 +1354,61 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="P10" t="s">
+        <v>102</v>
       </c>
       <c r="W10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X10">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.4716981132075472</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z10">
-        <v>0.8928571428571429</v>
+        <v>0.64</v>
       </c>
       <c r="AA10">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1398,73 +1416,73 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="U11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="W11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y11">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z11">
         <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1472,82 +1490,64 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
         <v>15</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
       <c r="I12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" t="s">
-        <v>96</v>
-      </c>
-      <c r="S12" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" t="s">
-        <v>104</v>
-      </c>
-      <c r="V12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="W12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X12">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z12">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1555,64 +1555,73 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
         <v>10</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="R13" t="s">
+        <v>106</v>
+      </c>
+      <c r="S13" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" t="s">
+        <v>110</v>
+      </c>
+      <c r="U13" t="s">
+        <v>113</v>
       </c>
       <c r="W13">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X13">
-        <v>1.071428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y13">
-        <v>0.5769230769230769</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z13">
-        <v>0.8571428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1620,61 +1629,73 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" t="s">
+        <v>113</v>
       </c>
       <c r="W14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="X14">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.4545454545454545</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z14">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1682,61 +1703,82 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
       <c r="I15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" t="s">
+        <v>103</v>
       </c>
       <c r="W15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X15">
-        <v>0.7142857142857143</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y15">
-        <v>0.4166666666666667</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z15">
-        <v>0.7142857142857143</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1744,58 +1786,61 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>102</v>
       </c>
       <c r="W16">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X16">
-        <v>0.625</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y16">
-        <v>0.3125</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1806,58 +1851,58 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y17">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z17">
-        <v>1.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1868,58 +1913,58 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y18">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z18">
-        <v>1.666666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -1930,58 +1975,58 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>102</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X19">
+        <v>0.625</v>
+      </c>
+      <c r="Y19">
+        <v>0.3125</v>
+      </c>
+      <c r="Z19">
         <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Z19">
-        <v>2</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -1992,25 +2037,22 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2019,33 +2061,222 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="P20" t="s">
+        <v>102</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
       <c r="Y20">
+        <v>0.4</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0.375</v>
+      </c>
+      <c r="Z21">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Z20">
+      <c r="Z22">
         <v>2</v>
       </c>
-      <c r="AA20">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -94,9 +94,18 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>GreatCat</t>
+  </si>
+  <si>
+    <t>GreatChick</t>
+  </si>
+  <si>
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>Goblin</t>
+  </si>
+  <si>
     <t>CyGirl</t>
   </si>
   <si>
@@ -160,9 +169,18 @@
     <t>Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "GreatCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GreatChick</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "AngrySheep</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Goblin</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "CyGirl</t>
   </si>
   <si>
@@ -223,6 +241,12 @@
     <t xml:space="preserve"> "Bat</t>
   </si>
   <si>
+    <t xml:space="preserve"> "Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Chicken</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Sheep</t>
   </si>
   <si>
@@ -238,18 +262,21 @@
     <t xml:space="preserve"> null</t>
   </si>
   <si>
+    <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
+  </si>
+  <si>
     <t xml:space="preserve"> GOLD_ITEM_TYPE.GoldBar</t>
   </si>
   <si>
-    <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
+    <t xml:space="preserve"> "AngryCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MonsterAttack1</t>
   </si>
   <si>
     <t xml:space="preserve"> "HumanAttack1</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Banshee</t>
   </si>
   <si>
@@ -268,6 +295,9 @@
     <t xml:space="preserve"> "PainSqueek</t>
   </si>
   <si>
+    <t xml:space="preserve"> "MonsterHurt</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "Ow</t>
   </si>
   <si>
@@ -277,9 +307,6 @@
     <t xml:space="preserve"> "PiercingScream</t>
   </si>
   <si>
-    <t xml:space="preserve"> "MonsterHurt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "MonsterHurt2</t>
   </si>
   <si>
@@ -289,6 +316,9 @@
     <t xml:space="preserve"> "HurtScream</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.0</t>
   </si>
   <si>
@@ -298,9 +328,6 @@
     <t xml:space="preserve"> 1.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
@@ -340,10 +367,10 @@
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
   </si>
   <si>
     <t xml:space="preserve"> BouncingMissile</t>
@@ -719,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,13 +837,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -825,43 +852,43 @@
         <v>10</v>
       </c>
       <c r="H2">
+        <v>150</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
         <v>100</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" t="s">
-        <v>91</v>
-      </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="W2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="X2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y2">
-        <v>0.5454545454545454</v>
+        <v>0.46875</v>
       </c>
       <c r="Z2">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -872,76 +899,61 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
       <c r="H3">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W3">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="X3">
-        <v>1.027397260273973</v>
+        <v>0.52</v>
       </c>
       <c r="Y3">
-        <v>0.6637168141592921</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="Z3">
-        <v>0.547945205479452</v>
+        <v>0.08</v>
       </c>
       <c r="AA3">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -949,58 +961,58 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4">
         <v>100</v>
       </c>
-      <c r="P4" t="s">
-        <v>102</v>
-      </c>
-      <c r="W4">
-        <v>55</v>
-      </c>
       <c r="X4">
-        <v>1.090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="Y4">
-        <v>0.631578947368421</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z4">
-        <v>0.7272727272727273</v>
+        <v>0.1</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1011,76 +1023,76 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
         <v>15</v>
       </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
       <c r="K5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="U5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="W5">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="X5">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Z5">
-        <v>0.5737704918032787</v>
+        <v>0.5</v>
       </c>
       <c r="AA5">
-        <v>120</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1088,61 +1100,76 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" t="s">
+        <v>116</v>
+      </c>
+      <c r="T6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W6">
         <v>73</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" t="s">
-        <v>102</v>
-      </c>
-      <c r="W6">
-        <v>47</v>
-      </c>
       <c r="X6">
-        <v>1.063829787234043</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Y6">
-        <v>0.6493506493506493</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="Z6">
-        <v>0.6382978723404256</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1150,82 +1177,61 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" t="s">
-        <v>104</v>
-      </c>
-      <c r="S7" t="s">
-        <v>109</v>
-      </c>
-      <c r="T7" t="s">
         <v>111</v>
       </c>
-      <c r="U7" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" t="s">
-        <v>103</v>
-      </c>
       <c r="W7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Y7">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Z7">
-        <v>0.6</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AA7">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1233,58 +1239,76 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" t="s">
+        <v>118</v>
+      </c>
+      <c r="T8" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" t="s">
+        <v>122</v>
       </c>
       <c r="W8">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Y8">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="Z8">
-        <v>0.625</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1292,58 +1316,58 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="W9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="X9">
-        <v>0.9090909090909091</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Y9">
-        <v>0.5660377358490566</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="Z9">
-        <v>0.6060606060606061</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1354,61 +1378,82 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" t="s">
+        <v>112</v>
       </c>
       <c r="W10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.6097560975609756</v>
+        <v>0.625</v>
       </c>
       <c r="Z10">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1416,73 +1461,58 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
       <c r="K11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" t="s">
-        <v>106</v>
-      </c>
-      <c r="S11" t="s">
-        <v>109</v>
-      </c>
-      <c r="T11" t="s">
-        <v>112</v>
-      </c>
-      <c r="U11" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="P11" t="s">
+        <v>111</v>
       </c>
       <c r="W11">
         <v>40</v>
       </c>
       <c r="X11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.4285714285714285</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z11">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AA11">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1490,61 +1520,58 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="W12">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y12">
-        <v>0.5555555555555556</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1555,73 +1582,61 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>103</v>
-      </c>
-      <c r="R13" t="s">
-        <v>106</v>
-      </c>
-      <c r="S13" t="s">
-        <v>109</v>
-      </c>
-      <c r="T13" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="P13" t="s">
+        <v>111</v>
       </c>
       <c r="W13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X13">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.4716981132075472</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z13">
-        <v>0.8928571428571429</v>
+        <v>0.64</v>
       </c>
       <c r="AA13">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1629,73 +1644,73 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="R14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="S14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="T14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="U14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="W14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y14">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z14">
         <v>0.75</v>
       </c>
       <c r="AA14">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1703,82 +1718,64 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
         <v>15</v>
       </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
       <c r="I15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Q15" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" t="s">
-        <v>106</v>
-      </c>
-      <c r="S15" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15" t="s">
         <v>111</v>
       </c>
-      <c r="U15" t="s">
-        <v>114</v>
-      </c>
-      <c r="V15" t="s">
-        <v>103</v>
-      </c>
       <c r="W15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X15">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z15">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1786,64 +1783,73 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
         <v>10</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="R16" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" t="s">
+        <v>119</v>
+      </c>
+      <c r="U16" t="s">
+        <v>122</v>
       </c>
       <c r="W16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="X16">
-        <v>1.071428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y16">
-        <v>0.5769230769230769</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z16">
-        <v>0.8571428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1851,61 +1857,73 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" t="s">
+        <v>122</v>
       </c>
       <c r="W17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="X17">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0.4545454545454545</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z17">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1913,61 +1931,82 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
         <v>10</v>
       </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
       <c r="I18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" t="s">
+        <v>123</v>
+      </c>
+      <c r="V18" t="s">
+        <v>112</v>
       </c>
       <c r="W18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X18">
-        <v>0.7142857142857143</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y18">
-        <v>0.4166666666666667</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z18">
-        <v>0.7142857142857143</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1975,58 +2014,61 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>111</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X19">
-        <v>0.625</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y19">
-        <v>0.3125</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2037,58 +2079,58 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="W20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y20">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z20">
-        <v>1.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2099,58 +2141,58 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y21">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z21">
-        <v>1.666666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2161,58 +2203,58 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="P22" t="s">
+        <v>111</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X22">
+        <v>0.625</v>
+      </c>
+      <c r="Y22">
+        <v>0.3125</v>
+      </c>
+      <c r="Z22">
         <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Z22">
-        <v>2</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2223,25 +2265,22 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2250,33 +2289,222 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="P23" t="s">
+        <v>111</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
       <c r="Y23">
+        <v>0.4</v>
+      </c>
+      <c r="Z23">
+        <v>1.5</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.375</v>
+      </c>
+      <c r="Z24">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <v>2</v>
       </c>
-      <c r="AA23">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +103,9 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>BigDragon</t>
+  </si>
+  <si>
     <t>Goblin</t>
   </si>
   <si>
@@ -169,226 +172,163 @@
     <t>Bat</t>
   </si>
   <si>
-    <t xml:space="preserve"> "GreatCat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "GreatChick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "AngrySheep</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Goblin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "CyGirl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "PurpleGalaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "RedDragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Viking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "WolfSpideGreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "WolfSpider</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MissGalaxyGreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "DarkMadHandy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MissGalaxyGreenBouncer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MissGalaxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MadHandy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "SpiderRed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "BigBat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "SpiderGreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Spider</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "DarkRedBat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "RedGoldBat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Bat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Sheep</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MissGhostFace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> null</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOLD_ITEM_TYPE.SilverBar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GOLD_ITEM_TYPE.GoldBar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "AngryCat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterAttack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "HumanAttack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Banshee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "FemaleAttack3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "FemaleAttack2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "FemaleAttack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "BatAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "PainSqueek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterHurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Ow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterHurt3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "PiercingScream</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "MonsterHurt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Ow2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "HurtScream</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.standardShine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.greenFluence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL.gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> false</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> true</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BouncingMissile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blue3D_Bouncer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Missile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.Bounceball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.BlueBounceball</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COMMON_ITEM_TYPE.RedFireball</t>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Dragon2</t>
+  </si>
+  <si>
+    <t>MissGhostFace</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>GOLD_ITEM_TYPE.GoldBar</t>
+  </si>
+  <si>
+    <t>GOLD_ITEM_TYPE.SilverBar</t>
+  </si>
+  <si>
+    <t>AngryCat</t>
+  </si>
+  <si>
+    <t>MonsterAttack1</t>
+  </si>
+  <si>
+    <t>HumanAttack1</t>
+  </si>
+  <si>
+    <t>Banshee</t>
+  </si>
+  <si>
+    <t>FemaleAttack3</t>
+  </si>
+  <si>
+    <t>FemaleAttack2</t>
+  </si>
+  <si>
+    <t>FemaleAttack1</t>
+  </si>
+  <si>
+    <t>BatAttack</t>
+  </si>
+  <si>
+    <t>PainSqueek</t>
+  </si>
+  <si>
+    <t>MonsterHurt</t>
+  </si>
+  <si>
+    <t>Ow</t>
+  </si>
+  <si>
+    <t>MonsterHurt3</t>
+  </si>
+  <si>
+    <t>PiercingScream</t>
+  </si>
+  <si>
+    <t>MonsterHurt2</t>
+  </si>
+  <si>
+    <t>Ow2</t>
+  </si>
+  <si>
+    <t>HurtScream</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>MATERIAL.standard</t>
+  </si>
+  <si>
+    <t>MATERIAL.gold</t>
+  </si>
+  <si>
+    <t>MATERIAL.standardShine</t>
+  </si>
+  <si>
+    <t>MATERIAL.greenFluence</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Blue3D_Bouncer</t>
+  </si>
+  <si>
+    <t>BouncingMissile</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>COMMON_ITEM_TYPE.BlueBounceball</t>
+  </si>
+  <si>
+    <t>COMMON_ITEM_TYPE.Bounceball</t>
+  </si>
+  <si>
+    <t>COMMON_ITEM_TYPE.RedFireball</t>
   </si>
 </sst>
 </file>
@@ -746,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,13 +777,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -864,19 +804,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W2">
         <v>150</v>
@@ -899,13 +839,13 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -926,19 +866,19 @@
         <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W3">
         <v>125</v>
@@ -961,13 +901,13 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -988,19 +928,19 @@
         <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W4">
         <v>100</v>
@@ -1023,76 +963,79 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
         <v>90</v>
       </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
         <v>93</v>
       </c>
-      <c r="N5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>112</v>
-      </c>
-      <c r="R5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S5" t="s">
-        <v>117</v>
-      </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="U5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="W5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="Y5">
-        <v>0.6666666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="Z5">
         <v>0.5</v>
       </c>
       <c r="AA5">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1100,76 +1043,76 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>86</v>
       </c>
-      <c r="M6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O6" t="s">
-        <v>108</v>
-      </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="T6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="U6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="W6">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="X6">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Z6">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AA6">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1177,61 +1120,76 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>40</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="O7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" t="s">
-        <v>111</v>
-      </c>
       <c r="W7">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="X7">
-        <v>1.090909090909091</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Y7">
-        <v>0.631578947368421</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="Z7">
-        <v>0.7272727272727273</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1239,76 +1197,61 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>40</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>15</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
       </c>
       <c r="K8">
         <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" t="s">
-        <v>118</v>
-      </c>
-      <c r="T8" t="s">
-        <v>119</v>
-      </c>
-      <c r="U8" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="W8">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="X8">
-        <v>0.9836065573770492</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Y8">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Z8">
-        <v>0.5737704918032787</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AA8">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1316,61 +1259,76 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" t="s">
+        <v>100</v>
+      </c>
+      <c r="U9" t="s">
+        <v>103</v>
       </c>
       <c r="W9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="X9">
-        <v>1.063829787234043</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Y9">
-        <v>0.6493506493506493</v>
+        <v>0.625</v>
       </c>
       <c r="Z9">
-        <v>0.6382978723404256</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1378,19 +1336,16 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1399,61 +1354,43 @@
         <v>35</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K10">
         <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>112</v>
-      </c>
-      <c r="R10" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" t="s">
-        <v>123</v>
-      </c>
-      <c r="V10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="W10">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Y10">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="Z10">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AA10">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1461,58 +1398,82 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
         <v>97</v>
       </c>
-      <c r="N11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" t="s">
-        <v>111</v>
+      <c r="T11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" t="s">
+        <v>91</v>
       </c>
       <c r="W11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="Z11">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1520,58 +1481,55 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W12">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X12">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z12">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1582,58 +1540,58 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W13">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y13">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z13">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1644,73 +1602,61 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>112</v>
-      </c>
-      <c r="R14" t="s">
-        <v>115</v>
-      </c>
-      <c r="S14" t="s">
-        <v>117</v>
-      </c>
-      <c r="T14" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" t="s">
-        <v>124</v>
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
       </c>
       <c r="W14">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="X14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z14">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AA14">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1718,64 +1664,73 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>89</v>
-      </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
         <v>101</v>
       </c>
-      <c r="O15" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>111</v>
+      <c r="U15" t="s">
+        <v>104</v>
       </c>
       <c r="W15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y15">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1783,73 +1738,64 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
         <v>88</v>
       </c>
-      <c r="M16" t="s">
-        <v>98</v>
-      </c>
-      <c r="N16" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" t="s">
-        <v>108</v>
+      <c r="P16" t="s">
+        <v>90</v>
       </c>
       <c r="Q16" t="s">
-        <v>112</v>
-      </c>
-      <c r="R16" t="s">
-        <v>115</v>
-      </c>
-      <c r="S16" t="s">
-        <v>117</v>
-      </c>
-      <c r="T16" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="W16">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X16">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z16">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1857,73 +1803,73 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
       <c r="I17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="R17" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="S17" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="U17" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="W17">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Y17">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="Z17">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AA17">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1931,16 +1877,13 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1949,64 +1892,58 @@
         <v>15</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="R18" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="S18" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T18" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U18" t="s">
-        <v>123</v>
-      </c>
-      <c r="V18" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="W18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X18">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z18">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AA18">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2014,64 +1951,82 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s">
         <v>90</v>
       </c>
-      <c r="M19" t="s">
+      <c r="Q19" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" t="s">
         <v>99</v>
       </c>
-      <c r="N19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O19" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>111</v>
+      <c r="U19" t="s">
+        <v>102</v>
+      </c>
+      <c r="V19" t="s">
+        <v>91</v>
       </c>
       <c r="W19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X19">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y19">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z19">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2079,58 +2034,61 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
         <v>10</v>
       </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>90</v>
       </c>
       <c r="W20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X20">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y20">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z20">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2141,16 +2099,13 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2159,10 +2114,10 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -2171,28 +2126,31 @@
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N21" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="O21" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="P21" t="s">
+        <v>90</v>
       </c>
       <c r="W21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X21">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y21">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z21">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2203,58 +2161,58 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22" t="s">
-        <v>85</v>
-      </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
-      </c>
-      <c r="P22" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="W22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X22">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y22">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2265,58 +2223,58 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X23">
+        <v>0.625</v>
+      </c>
+      <c r="Y23">
+        <v>0.3125</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>0.4</v>
-      </c>
-      <c r="Z23">
-        <v>1.5</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2327,58 +2285,58 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="N24" t="s">
         <v>80</v>
       </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s">
-        <v>106</v>
-      </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="P24" t="s">
+        <v>90</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="Z24">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -2389,25 +2347,25 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2416,31 +2374,31 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="N25" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O25" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -2451,49 +2409,49 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="W26">
         <v>2</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" t="s">
-        <v>101</v>
-      </c>
-      <c r="O26" t="s">
-        <v>107</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
       </c>
       <c r="X26">
         <v>1</v>
@@ -2505,6 +2463,68 @@
         <v>2</v>
       </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>GreatPig</t>
+  </si>
+  <si>
     <t>GreatCat</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>SkeleDwarf</t>
+  </si>
+  <si>
     <t>BigDragon</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t>Pig</t>
+  </si>
+  <si>
     <t>Cat</t>
   </si>
   <si>
@@ -205,12 +214,18 @@
     <t>GOLD_ITEM_TYPE.SilverBar</t>
   </si>
   <si>
+    <t>PigAttack</t>
+  </si>
+  <si>
     <t>AngryCat</t>
   </si>
   <si>
     <t>MonsterAttack1</t>
   </si>
   <si>
+    <t>DragonRoar</t>
+  </si>
+  <si>
     <t>HumanAttack1</t>
   </si>
   <si>
@@ -229,18 +244,21 @@
     <t>BatAttack</t>
   </si>
   <si>
+    <t>PigSqueal</t>
+  </si>
+  <si>
     <t>PainSqueek</t>
   </si>
   <si>
+    <t>MonsterHurt3</t>
+  </si>
+  <si>
     <t>MonsterHurt</t>
   </si>
   <si>
     <t>Ow</t>
   </si>
   <si>
-    <t>MonsterHurt3</t>
-  </si>
-  <si>
     <t>PiercingScream</t>
   </si>
   <si>
@@ -277,10 +295,10 @@
     <t>MATERIAL.standard</t>
   </si>
   <si>
+    <t>MATERIAL.standardShine</t>
+  </si>
+  <si>
     <t>MATERIAL.gold</t>
-  </si>
-  <si>
-    <t>MATERIAL.standardShine</t>
   </si>
   <si>
     <t>MATERIAL.greenFluence</t>
@@ -686,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,10 +798,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -804,19 +822,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W2">
         <v>150</v>
@@ -842,10 +860,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -854,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -863,34 +881,34 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W3">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="X3">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="Y3">
-        <v>0.4814814814814815</v>
+        <v>0.46875</v>
       </c>
       <c r="Z3">
-        <v>0.08</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -904,10 +922,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -916,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -925,34 +943,34 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="X4">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="Y4">
-        <v>0.4545454545454545</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="Z4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -966,76 +984,58 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>99</v>
-      </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="W5">
         <v>100</v>
       </c>
       <c r="X5">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="Y5">
-        <v>0.66</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA5">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1048,71 +1048,53 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
       <c r="F6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="W6">
         <v>80</v>
       </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" t="s">
-        <v>103</v>
-      </c>
-      <c r="W6">
-        <v>90</v>
-      </c>
       <c r="X6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Y6">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AA6">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1123,73 +1105,76 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
         <v>20</v>
       </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
       <c r="K7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T7" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7">
         <v>100</v>
       </c>
-      <c r="U7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W7">
-        <v>73</v>
-      </c>
       <c r="X7">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Z7">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
-        <v>200</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1197,61 +1182,76 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>15</v>
       </c>
       <c r="K8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8">
         <v>90</v>
       </c>
-      <c r="W8">
-        <v>55</v>
-      </c>
       <c r="X8">
-        <v>1.090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Z8">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1262,73 +1262,73 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>35</v>
-      </c>
-      <c r="H9">
-        <v>40</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
       <c r="K9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="W9">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="X9">
-        <v>0.9836065573770492</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Y9">
-        <v>0.625</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="Z9">
-        <v>0.5737704918032787</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AA9">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1336,58 +1336,58 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
         <v>60</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>35</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>50</v>
-      </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X10">
-        <v>1.063829787234043</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Y10">
-        <v>0.6493506493506493</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Z10">
-        <v>0.6382978723404256</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1401,79 +1401,73 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11">
         <v>61</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V11" t="s">
-        <v>91</v>
-      </c>
-      <c r="W11">
-        <v>50</v>
-      </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Y11">
         <v>0.625</v>
       </c>
       <c r="Z11">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AA11">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1486,50 +1480,53 @@
       <c r="C12" t="s">
         <v>36</v>
       </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W12">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Y12">
-        <v>0.6153846153846154</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="Z12">
-        <v>0.625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1543,58 +1540,79 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
       </c>
       <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13">
+        <v>50</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0.625</v>
+      </c>
+      <c r="Z13">
+        <v>0.6</v>
+      </c>
+      <c r="AA13">
         <v>60</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s">
-        <v>90</v>
-      </c>
-      <c r="W13">
-        <v>33</v>
-      </c>
-      <c r="X13">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="Y13">
-        <v>0.5660377358490566</v>
-      </c>
-      <c r="Z13">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1607,53 +1625,50 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W14">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.6097560975609756</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Z14">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1667,70 +1682,58 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <v>30</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" t="s">
-        <v>101</v>
-      </c>
-      <c r="U15" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
       </c>
       <c r="W15">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="X15">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Y15">
-        <v>0.4285714285714285</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="Z15">
-        <v>0.75</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AA15">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1741,10 +1744,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1753,46 +1756,43 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
         <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>0.5555555555555556</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1806,70 +1806,70 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="T17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="W17">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="X17">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Y17">
-        <v>0.4716981132075472</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Z17">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="AA17">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1880,55 +1880,46 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
       <c r="I18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
       </c>
       <c r="Q18" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18" t="s">
         <v>96</v>
-      </c>
-      <c r="S18" t="s">
-        <v>97</v>
-      </c>
-      <c r="T18" t="s">
-        <v>100</v>
-      </c>
-      <c r="U18" t="s">
-        <v>103</v>
       </c>
       <c r="W18">
         <v>20</v>
@@ -1937,13 +1928,13 @@
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="Z18">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1954,79 +1945,70 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10</v>
-      </c>
-      <c r="I19">
-        <v>6</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R19" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19">
+        <v>28</v>
+      </c>
+      <c r="X19">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="Y19">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="Z19">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="AA19">
         <v>80</v>
-      </c>
-      <c r="O19" t="s">
-        <v>87</v>
-      </c>
-      <c r="P19" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" t="s">
-        <v>95</v>
-      </c>
-      <c r="S19" t="s">
-        <v>97</v>
-      </c>
-      <c r="T19" t="s">
-        <v>99</v>
-      </c>
-      <c r="U19" t="s">
-        <v>102</v>
-      </c>
-      <c r="V19" t="s">
-        <v>91</v>
-      </c>
-      <c r="W19">
-        <v>19</v>
-      </c>
-      <c r="X19">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="Y19">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="Z19">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="AA19">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2040,58 +2022,67 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
         <v>12</v>
       </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
       <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
       <c r="K20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="R20" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" t="s">
+        <v>103</v>
+      </c>
+      <c r="T20" t="s">
+        <v>106</v>
+      </c>
+      <c r="U20" t="s">
+        <v>109</v>
       </c>
       <c r="W20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="X20">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z20">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2102,58 +2093,79 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
         <v>10</v>
       </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
       <c r="I21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T21" t="s">
+        <v>105</v>
+      </c>
+      <c r="U21" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" t="s">
+        <v>97</v>
       </c>
       <c r="W21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X21">
-        <v>0.8333333333333334</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y21">
-        <v>0.4545454545454545</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Z21">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2166,53 +2178,56 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
       <c r="I22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M22" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="P22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>96</v>
       </c>
       <c r="W22">
         <v>14</v>
       </c>
       <c r="X22">
-        <v>0.7142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Y22">
-        <v>0.4166666666666667</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Z22">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2226,55 +2241,55 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
         <v>8</v>
       </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X23">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Y23">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2290,53 +2305,53 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Y24">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Z24">
-        <v>1.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -2350,55 +2365,55 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="P25" t="s">
+        <v>96</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X25">
+        <v>0.625</v>
+      </c>
+      <c r="Y25">
+        <v>0.3125</v>
+      </c>
+      <c r="Z25">
         <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>0.375</v>
-      </c>
-      <c r="Z25">
-        <v>1.666666666666667</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -2412,23 +2427,20 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
       <c r="I26">
         <v>0</v>
       </c>
@@ -2436,31 +2448,34 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="P26" t="s">
+        <v>96</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X26">
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -2474,22 +2489,22 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2498,33 +2513,157 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
       <c r="Y27">
+        <v>0.375</v>
+      </c>
+      <c r="Z27">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
         <v>0.3333333333333333</v>
       </c>
-      <c r="Z27">
+      <c r="Z28">
         <v>2</v>
       </c>
-      <c r="AA27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -79,6 +79,9 @@
     <t>shoot3D</t>
   </si>
   <si>
+    <t>boss</t>
+  </si>
+  <si>
     <t>ADM</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>BigDragon</t>
   </si>
   <si>
+    <t>BigDragonBoss</t>
+  </si>
+  <si>
     <t>Goblin</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
   </si>
   <si>
     <t>GOLD_ITEM_TYPE.GoldBar</t>
+  </si>
+  <si>
+    <t>KEY_TYPE.Pearl</t>
   </si>
   <si>
     <t>GOLD_ITEM_TYPE.SilverBar</t>
@@ -704,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,19 +798,22 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -822,48 +834,48 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2">
+        <v>99</v>
+      </c>
+      <c r="X2">
         <v>150</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.5</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>0.46875</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.06666666666666667</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -884,48 +896,48 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3">
+        <v>99</v>
+      </c>
+      <c r="X3">
         <v>150</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.5</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.46875</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.06666666666666667</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -946,48 +958,48 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4">
+        <v>99</v>
+      </c>
+      <c r="X4">
         <v>125</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.52</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.4814814814814815</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.08</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1008,45 +1020,45 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5">
+        <v>99</v>
+      </c>
+      <c r="X5">
         <v>100</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.5</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.4545454545454545</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.1</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1067,51 +1079,51 @@
         <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W6">
+        <v>99</v>
+      </c>
+      <c r="X6">
         <v>80</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1.25</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.7692307692307693</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.625</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1132,294 +1144,315 @@
         <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
-      </c>
-      <c r="W7">
+        <v>111</v>
+      </c>
+      <c r="X7">
         <v>100</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.5</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>50</v>
       </c>
       <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" t="s">
+        <v>111</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>100</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA8">
+        <v>0.5</v>
+      </c>
+      <c r="AB8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
         <v>25</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>15</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
         <v>99</v>
       </c>
-      <c r="S8" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="Q9" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" t="s">
         <v>106</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T9" t="s">
         <v>109</v>
       </c>
-      <c r="W8">
+      <c r="U9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9">
         <v>90</v>
       </c>
-      <c r="X8">
+      <c r="Y9">
         <v>1</v>
       </c>
-      <c r="Y8">
+      <c r="Z9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="Z8">
+      <c r="AA9">
         <v>0.5</v>
       </c>
-      <c r="AA8">
+      <c r="AB9">
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9">
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
         <v>10</v>
-      </c>
-      <c r="G9">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>75</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" t="s">
-        <v>106</v>
-      </c>
-      <c r="U9" t="s">
-        <v>109</v>
-      </c>
-      <c r="W9">
-        <v>73</v>
-      </c>
-      <c r="X9">
-        <v>1.027397260273973</v>
-      </c>
-      <c r="Y9">
-        <v>0.6637168141592921</v>
-      </c>
-      <c r="Z9">
-        <v>0.547945205479452</v>
-      </c>
-      <c r="AA9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
       </c>
       <c r="G10">
         <v>40</v>
       </c>
       <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10">
+        <v>73</v>
+      </c>
+      <c r="Y10">
+        <v>1.027397260273973</v>
+      </c>
+      <c r="Z10">
+        <v>0.6637168141592921</v>
+      </c>
+      <c r="AA10">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="AB10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>40</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" t="s">
-        <v>96</v>
-      </c>
-      <c r="W10">
-        <v>55</v>
-      </c>
-      <c r="X10">
-        <v>1.090909090909091</v>
-      </c>
-      <c r="Y10">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="Z10">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
       </c>
       <c r="H11">
         <v>40</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>15</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
       </c>
       <c r="K11">
         <v>60</v>
@@ -1431,125 +1464,122 @@
         <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11">
+        <v>55</v>
+      </c>
+      <c r="Y11">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="Z11">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="AA11">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="P12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" t="s">
         <v>100</v>
       </c>
-      <c r="S11" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" t="s">
         <v>109</v>
       </c>
-      <c r="W11">
+      <c r="U12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12">
         <v>61</v>
       </c>
-      <c r="X11">
+      <c r="Y12">
         <v>0.9836065573770492</v>
       </c>
-      <c r="Y11">
+      <c r="Z12">
         <v>0.625</v>
       </c>
-      <c r="Z11">
+      <c r="AA12">
         <v>0.5737704918032787</v>
       </c>
-      <c r="AA11">
+      <c r="AB12">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12">
-        <v>47</v>
-      </c>
-      <c r="X12">
-        <v>1.063829787234043</v>
-      </c>
-      <c r="Y12">
-        <v>0.6493506493506493</v>
-      </c>
-      <c r="Z12">
-        <v>0.6382978723404256</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -1558,545 +1588,533 @@
         <v>35</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K13">
         <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" t="s">
         <v>99</v>
       </c>
-      <c r="S13" t="s">
-        <v>103</v>
-      </c>
-      <c r="T13" t="s">
-        <v>105</v>
-      </c>
-      <c r="U13" t="s">
-        <v>108</v>
-      </c>
-      <c r="V13" t="s">
-        <v>97</v>
-      </c>
-      <c r="W13">
+      <c r="X13">
+        <v>47</v>
+      </c>
+      <c r="Y13">
+        <v>1.063829787234043</v>
+      </c>
+      <c r="Z13">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="AA13">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>0.625</v>
-      </c>
-      <c r="Z13">
-        <v>0.6</v>
-      </c>
-      <c r="AA13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
-      <c r="H14">
-        <v>30</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>40</v>
-      </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
         <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
-      </c>
-      <c r="W14">
-        <v>40</v>
+        <v>99</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" t="s">
+        <v>100</v>
       </c>
       <c r="X14">
+        <v>50</v>
+      </c>
+      <c r="Y14">
         <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>0.6153846153846154</v>
       </c>
       <c r="Z14">
         <v>0.625</v>
       </c>
       <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>0.6</v>
+      </c>
+      <c r="AB14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
         <v>89</v>
       </c>
       <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15">
+        <v>40</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AA15">
+        <v>0.625</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" t="s">
         <v>92</v>
       </c>
-      <c r="P15" t="s">
-        <v>96</v>
-      </c>
-      <c r="W15">
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="X16">
         <v>33</v>
       </c>
-      <c r="X15">
+      <c r="Y16">
         <v>0.9090909090909091</v>
       </c>
-      <c r="Y15">
+      <c r="Z16">
         <v>0.5660377358490566</v>
       </c>
-      <c r="Z15">
+      <c r="AA16">
         <v>0.6060606060606061</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W16">
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X17">
         <v>25</v>
       </c>
-      <c r="X16">
+      <c r="Y17">
         <v>1</v>
       </c>
-      <c r="Y16">
+      <c r="Z17">
         <v>0.6097560975609756</v>
       </c>
-      <c r="Z16">
+      <c r="AA17">
         <v>0.64</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>30</v>
-      </c>
-      <c r="L17" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>97</v>
-      </c>
-      <c r="R17" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" t="s">
-        <v>103</v>
-      </c>
-      <c r="T17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U17" t="s">
-        <v>110</v>
-      </c>
-      <c r="W17">
-        <v>40</v>
-      </c>
-      <c r="X17">
-        <v>0.75</v>
-      </c>
-      <c r="Y17">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="Z17">
-        <v>0.75</v>
-      </c>
-      <c r="AA17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>100</v>
+      </c>
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" t="s">
+        <v>106</v>
+      </c>
+      <c r="T18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" t="s">
+        <v>113</v>
+      </c>
+      <c r="X18">
+        <v>40</v>
+      </c>
+      <c r="Y18">
+        <v>0.75</v>
+      </c>
+      <c r="Z18">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AA18">
+        <v>0.75</v>
+      </c>
+      <c r="AB18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>16</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" t="s">
-        <v>93</v>
-      </c>
-      <c r="P18" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>96</v>
-      </c>
-      <c r="W18">
-        <v>20</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="Z18">
-        <v>0.8</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>25</v>
       </c>
       <c r="H19">
         <v>15</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N19" t="s">
         <v>89</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="P19" t="s">
+        <v>99</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" t="s">
-        <v>101</v>
-      </c>
-      <c r="S19" t="s">
-        <v>103</v>
-      </c>
-      <c r="T19" t="s">
+        <v>99</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AA19">
+        <v>0.8</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20" t="s">
         <v>106</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T20" t="s">
         <v>109</v>
       </c>
-      <c r="W19">
+      <c r="U20" t="s">
+        <v>112</v>
+      </c>
+      <c r="X20">
         <v>28</v>
       </c>
-      <c r="X19">
+      <c r="Y20">
         <v>0.8928571428571429</v>
       </c>
-      <c r="Y19">
+      <c r="Z20">
         <v>0.4716981132075472</v>
       </c>
-      <c r="Z19">
+      <c r="AA20">
         <v>0.8928571428571429</v>
       </c>
-      <c r="AA19">
+      <c r="AB20">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
-      <c r="I20">
-        <v>7</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" t="s">
-        <v>103</v>
-      </c>
-      <c r="T20" t="s">
-        <v>106</v>
-      </c>
-      <c r="U20" t="s">
-        <v>109</v>
-      </c>
-      <c r="W20">
-        <v>20</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Z20">
-        <v>0.75</v>
-      </c>
-      <c r="AA20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>65</v>
@@ -2108,208 +2126,220 @@
         <v>15</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" t="s">
+        <v>105</v>
+      </c>
+      <c r="S21" t="s">
+        <v>106</v>
+      </c>
+      <c r="T21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U21" t="s">
+        <v>112</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AA21">
+        <v>0.75</v>
+      </c>
+      <c r="AB21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R21" t="s">
-        <v>101</v>
-      </c>
-      <c r="S21" t="s">
-        <v>103</v>
-      </c>
-      <c r="T21" t="s">
-        <v>105</v>
-      </c>
-      <c r="U21" t="s">
-        <v>108</v>
-      </c>
-      <c r="V21" t="s">
-        <v>97</v>
-      </c>
-      <c r="W21">
-        <v>19</v>
-      </c>
-      <c r="X21">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="Y21">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="Z21">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="AA21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
       <c r="F22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" t="s">
+        <v>104</v>
+      </c>
+      <c r="S22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T22" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" t="s">
+        <v>111</v>
+      </c>
+      <c r="V22" t="s">
+        <v>100</v>
+      </c>
+      <c r="X22">
+        <v>19</v>
+      </c>
+      <c r="Y22">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="Z22">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="AA22">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="AB22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
         <v>15</v>
       </c>
-      <c r="L22" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O22" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" t="s">
         <v>96</v>
       </c>
-      <c r="Q22" t="s">
-        <v>96</v>
-      </c>
-      <c r="W22">
+      <c r="P23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>99</v>
+      </c>
+      <c r="X23">
         <v>14</v>
       </c>
-      <c r="X22">
+      <c r="Y23">
         <v>1.071428571428571</v>
       </c>
-      <c r="Y22">
+      <c r="Z23">
         <v>0.5769230769230769</v>
       </c>
-      <c r="Z22">
+      <c r="AA23">
         <v>0.8571428571428571</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" t="s">
-        <v>90</v>
-      </c>
-      <c r="O23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" t="s">
-        <v>96</v>
-      </c>
-      <c r="W23">
-        <v>12</v>
-      </c>
-      <c r="X23">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="Y23">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="Z23">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2318,10 +2348,10 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2330,340 +2360,405 @@
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s">
-        <v>92</v>
-      </c>
-      <c r="W24">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>99</v>
       </c>
       <c r="X24">
-        <v>0.7142857142857143</v>
+        <v>12</v>
       </c>
       <c r="Y24">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z24">
-        <v>0.7142857142857143</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="X25">
+        <v>14</v>
+      </c>
+      <c r="Y25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z25">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AA25">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>6</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="L25" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" t="s">
+        <v>99</v>
+      </c>
+      <c r="X26">
+        <v>8</v>
+      </c>
+      <c r="Y26">
+        <v>0.625</v>
+      </c>
+      <c r="Z26">
+        <v>0.3125</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" t="s">
         <v>89</v>
       </c>
-      <c r="O25" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" t="s">
-        <v>96</v>
-      </c>
-      <c r="W25">
-        <v>8</v>
-      </c>
-      <c r="X25">
-        <v>0.625</v>
-      </c>
-      <c r="Y25">
-        <v>0.3125</v>
-      </c>
-      <c r="Z25">
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="s">
+        <v>99</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
         <v>1</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
+      <c r="Z27">
+        <v>0.4</v>
+      </c>
+      <c r="AA27">
+        <v>1.5</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0.375</v>
+      </c>
+      <c r="AA28">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26" t="s">
-        <v>68</v>
-      </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O26" t="s">
-        <v>92</v>
-      </c>
-      <c r="P26" t="s">
-        <v>96</v>
-      </c>
-      <c r="W26">
-        <v>4</v>
-      </c>
-      <c r="X26">
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Y26">
-        <v>0.4</v>
-      </c>
-      <c r="Z26">
-        <v>1.5</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" t="s">
-        <v>92</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="X27">
+      <c r="Z29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>0.375</v>
-      </c>
-      <c r="Z27">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" t="s">
+        <v>95</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA30">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" t="s">
-        <v>92</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Z28">
-        <v>2</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" t="s">
-        <v>75</v>
-      </c>
-      <c r="N29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" t="s">
-        <v>92</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="Z29">
-        <v>2</v>
-      </c>
-      <c r="AA29">
+      <c r="AB30">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -109,6 +109,9 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>NeverBlink</t>
+  </si>
+  <si>
     <t>SkeleDwarf</t>
   </si>
   <si>
@@ -232,12 +235,12 @@
     <t>MonsterAttack1</t>
   </si>
   <si>
+    <t>HumanAttack1</t>
+  </si>
+  <si>
     <t>DragonRoar</t>
   </si>
   <si>
-    <t>HumanAttack1</t>
-  </si>
-  <si>
     <t>Banshee</t>
   </si>
   <si>
@@ -259,15 +262,15 @@
     <t>PainSqueek</t>
   </si>
   <si>
+    <t>Ow</t>
+  </si>
+  <si>
     <t>MonsterHurt3</t>
   </si>
   <si>
     <t>MonsterHurt</t>
   </si>
   <si>
-    <t>Ow</t>
-  </si>
-  <si>
     <t>PiercingScream</t>
   </si>
   <si>
@@ -319,12 +322,12 @@
     <t>true</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -340,19 +343,19 @@
     <t>17</t>
   </si>
   <si>
+    <t>BouncingMissile</t>
+  </si>
+  <si>
     <t>Blue3D_Bouncer</t>
   </si>
   <si>
-    <t>BouncingMissile</t>
-  </si>
-  <si>
     <t>Missile</t>
   </si>
   <si>
+    <t>COMMON_ITEM_TYPE.Bounceball</t>
+  </si>
+  <si>
     <t>COMMON_ITEM_TYPE.BlueBounceball</t>
-  </si>
-  <si>
-    <t>COMMON_ITEM_TYPE.Bounceball</t>
   </si>
   <si>
     <t>COMMON_ITEM_TYPE.RedFireball</t>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,10 +813,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -834,19 +837,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -872,10 +875,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -896,19 +899,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -934,10 +937,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -996,10 +999,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1020,19 +1023,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X5">
         <v>100</v>
@@ -1060,53 +1063,68 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
       <c r="F6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6" t="s">
+        <v>112</v>
+      </c>
+      <c r="X6">
         <v>96</v>
-      </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="X6">
-        <v>80</v>
       </c>
       <c r="Y6">
         <v>1.25</v>
       </c>
       <c r="Z6">
-        <v>0.7692307692307693</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA6">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1117,25 +1135,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -1147,7 +1159,7 @@
         <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s">
         <v>89</v>
@@ -1156,37 +1168,22 @@
         <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>100</v>
-      </c>
-      <c r="R7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" t="s">
-        <v>102</v>
-      </c>
-      <c r="T7" t="s">
-        <v>108</v>
-      </c>
-      <c r="U7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="X7">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z7">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB7">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1194,13 +1191,13 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
@@ -1224,37 +1221,34 @@
         <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
         <v>102</v>
       </c>
       <c r="T8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U8" t="s">
-        <v>111</v>
-      </c>
-      <c r="W8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="X8">
         <v>100</v>
@@ -1277,64 +1271,70 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>50</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" t="s">
         <v>102</v>
       </c>
-      <c r="S9" t="s">
-        <v>106</v>
-      </c>
       <c r="T9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U9" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
       </c>
       <c r="X9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>0.5</v>
       </c>
       <c r="AB9">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1360,31 +1360,31 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
         <v>90</v>
@@ -1393,16 +1393,16 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R10" t="s">
         <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T10" t="s">
         <v>109</v>
@@ -1411,19 +1411,19 @@
         <v>112</v>
       </c>
       <c r="X10">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Y10">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA10">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1431,61 +1431,76 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>40</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
         <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" t="s">
+        <v>112</v>
       </c>
       <c r="X11">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y11">
-        <v>1.090909090909091</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z11">
-        <v>0.631578947368421</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA11">
-        <v>0.7272727272727273</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1493,76 +1508,61 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>40</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>15</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
       </c>
       <c r="K12">
         <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="X12">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y12">
-        <v>0.9836065573770492</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z12">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA12">
-        <v>0.5737704918032787</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB12">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1573,58 +1573,73 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" t="s">
+        <v>112</v>
       </c>
       <c r="X13">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Y13">
-        <v>1.063829787234043</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z13">
-        <v>0.6493506493506493</v>
+        <v>0.625</v>
       </c>
       <c r="AA13">
-        <v>0.6382978723404256</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1635,16 +1650,13 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>30</v>
@@ -1653,61 +1665,43 @@
         <v>35</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K14">
         <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" t="s">
-        <v>108</v>
-      </c>
-      <c r="U14" t="s">
-        <v>111</v>
-      </c>
-      <c r="V14" t="s">
         <v>100</v>
       </c>
       <c r="X14">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z14">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA14">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB14">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1718,55 +1712,79 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" t="s">
+        <v>101</v>
       </c>
       <c r="X15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="AA15">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1777,55 +1795,52 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X16">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y16">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA16">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -1839,55 +1854,55 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N17" t="s">
         <v>93</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X17">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z17">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA17">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -1901,70 +1916,58 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" t="s">
-        <v>100</v>
-      </c>
-      <c r="R18" t="s">
-        <v>104</v>
-      </c>
-      <c r="S18" t="s">
-        <v>106</v>
-      </c>
-      <c r="T18" t="s">
-        <v>110</v>
-      </c>
-      <c r="U18" t="s">
-        <v>113</v>
+      <c r="P18" t="s">
+        <v>100</v>
       </c>
       <c r="X18">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA18">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AB18">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -1975,28 +1978,28 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
         <v>76</v>
@@ -2005,31 +2008,40 @@
         <v>87</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="R19" t="s">
+        <v>105</v>
+      </c>
+      <c r="S19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19" t="s">
+        <v>111</v>
+      </c>
+      <c r="U19" t="s">
+        <v>114</v>
       </c>
       <c r="X19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2040,70 +2052,61 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>15</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>100</v>
       </c>
       <c r="Q20" t="s">
         <v>100</v>
       </c>
-      <c r="R20" t="s">
-        <v>104</v>
-      </c>
-      <c r="S20" t="s">
-        <v>106</v>
-      </c>
-      <c r="T20" t="s">
-        <v>109</v>
-      </c>
-      <c r="U20" t="s">
-        <v>112</v>
-      </c>
       <c r="X20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y20">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA20">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2114,49 +2117,49 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
         <v>15</v>
       </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
       <c r="I21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R21" t="s">
         <v>105</v>
       </c>
       <c r="S21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T21" t="s">
         <v>109</v>
@@ -2165,19 +2168,19 @@
         <v>112</v>
       </c>
       <c r="X21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z21">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA21">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB21">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2190,11 +2193,8 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2203,64 +2203,58 @@
         <v>15</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M22" t="s">
         <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O22" t="s">
         <v>97</v>
       </c>
-      <c r="P22" t="s">
-        <v>99</v>
-      </c>
       <c r="Q22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U22" t="s">
-        <v>111</v>
-      </c>
-      <c r="V22" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="X22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y22">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA22">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AB22">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2273,59 +2267,77 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q23" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="R23" t="s">
+        <v>105</v>
+      </c>
+      <c r="S23" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" t="s">
+        <v>113</v>
+      </c>
+      <c r="V23" t="s">
+        <v>101</v>
       </c>
       <c r="X23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y23">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z23">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA23">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2336,55 +2348,58 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
         <v>10</v>
       </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>100</v>
       </c>
       <c r="X24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y24">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z24">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA24">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2398,13 +2413,10 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2413,10 +2425,10 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2425,28 +2437,31 @@
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="P25" t="s">
+        <v>100</v>
       </c>
       <c r="X25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y25">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z25">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA25">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -2460,55 +2475,55 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
-      </c>
-      <c r="P26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="X26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y26">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z26">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -2522,55 +2537,55 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y27">
+        <v>0.625</v>
+      </c>
+      <c r="Z27">
+        <v>0.3125</v>
+      </c>
+      <c r="AA27">
         <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>0.4</v>
-      </c>
-      <c r="AA27">
-        <v>1.5</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -2584,22 +2599,19 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2608,31 +2620,34 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="P28" t="s">
+        <v>100</v>
       </c>
       <c r="X28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA28">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2646,22 +2661,22 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2670,31 +2685,31 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y29">
         <v>1</v>
       </c>
       <c r="Z29">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="AA29">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -2708,23 +2723,23 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
@@ -2732,22 +2747,22 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2759,6 +2774,68 @@
         <v>2</v>
       </c>
       <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" t="s">
+        <v>96</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -109,6 +109,12 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>Basilisk</t>
+  </si>
+  <si>
+    <t>EvilNun</t>
+  </si>
+  <si>
     <t>NeverBlink</t>
   </si>
   <si>
@@ -205,7 +211,7 @@
     <t>MissGhostFace</t>
   </si>
   <si>
-    <t>0.40</t>
+    <t>0.50</t>
   </si>
   <si>
     <t>0.25</t>
@@ -220,12 +226,12 @@
     <t>GOLD_ITEM_TYPE.GoldBar</t>
   </si>
   <si>
+    <t>GOLD_ITEM_TYPE.SilverBar</t>
+  </si>
+  <si>
     <t>KEY_TYPE.Pearl</t>
   </si>
   <si>
-    <t>GOLD_ITEM_TYPE.SilverBar</t>
-  </si>
-  <si>
     <t>PigAttack</t>
   </si>
   <si>
@@ -235,6 +241,9 @@
     <t>MonsterAttack1</t>
   </si>
   <si>
+    <t>MonsterAttack2</t>
+  </si>
+  <si>
     <t>HumanAttack1</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
     <t>PainSqueek</t>
   </si>
   <si>
+    <t>MonsterHurt2</t>
+  </si>
+  <si>
     <t>Ow</t>
   </si>
   <si>
@@ -274,9 +286,6 @@
     <t>PiercingScream</t>
   </si>
   <si>
-    <t>MonsterHurt2</t>
-  </si>
-  <si>
     <t>Ow2</t>
   </si>
   <si>
@@ -289,6 +298,9 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>0.9</t>
+  </si>
+  <si>
     <t>0.8</t>
   </si>
   <si>
@@ -320,6 +332,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>8</t>
@@ -716,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -813,10 +828,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -837,19 +852,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -875,10 +890,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -899,19 +914,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -937,10 +952,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -961,19 +976,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -999,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1023,19 +1038,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X5">
         <v>100</v>
@@ -1063,68 +1078,53 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
       <c r="F6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6">
         <v>90</v>
       </c>
-      <c r="O6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>101</v>
-      </c>
-      <c r="R6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T6" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" t="s">
-        <v>112</v>
-      </c>
-      <c r="X6">
-        <v>96</v>
-      </c>
       <c r="Y6">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z6">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1137,53 +1137,68 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
       <c r="F7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K7">
+        <v>130</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="s">
-        <v>100</v>
-      </c>
-      <c r="X7">
-        <v>80</v>
-      </c>
       <c r="Y7">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.7692307692307693</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA7">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1194,76 +1209,70 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>12</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="X8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z8">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA8">
         <v>0.5</v>
       </c>
       <c r="AB8">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1271,28 +1280,22 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>20</v>
@@ -1304,49 +1307,31 @@
         <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" t="s">
-        <v>110</v>
-      </c>
-      <c r="U9" t="s">
-        <v>113</v>
-      </c>
-      <c r="W9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="X9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z9">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB9">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1357,61 +1342,64 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>69</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="S10" t="s">
         <v>107</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="U10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="X10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1423,7 +1411,7 @@
         <v>0.5</v>
       </c>
       <c r="AB10">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1431,76 +1419,82 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
       <c r="K11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" t="s">
+        <v>118</v>
+      </c>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11">
         <v>100</v>
       </c>
-      <c r="Q11" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" t="s">
-        <v>102</v>
-      </c>
-      <c r="S11" t="s">
-        <v>106</v>
-      </c>
-      <c r="T11" t="s">
-        <v>109</v>
-      </c>
-      <c r="U11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11">
-        <v>73</v>
-      </c>
       <c r="Y11">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA11">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AB11">
-        <v>200</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1508,61 +1502,76 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>15</v>
       </c>
       <c r="K12">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U12" t="s">
+        <v>117</v>
       </c>
       <c r="X12">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Y12">
-        <v>1.090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA12">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1573,73 +1582,73 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="G13">
-        <v>35</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
       <c r="K13">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="U13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="X13">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Y13">
-        <v>0.9836065573770492</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z13">
-        <v>0.625</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA13">
-        <v>0.5737704918032787</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB13">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1647,58 +1656,58 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X14">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Y14">
-        <v>1.063829787234043</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z14">
-        <v>0.6493506493506493</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA14">
-        <v>0.6382978723404256</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -1712,79 +1721,73 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <v>35</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
       <c r="K15">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="S15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U15" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="X15">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z15">
         <v>0.625</v>
       </c>
       <c r="AA15">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB15">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1797,50 +1800,53 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X16">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z16">
-        <v>0.6153846153846154</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA16">
-        <v>0.625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -1854,58 +1860,79 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
         <v>93</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>105</v>
+      </c>
+      <c r="R17" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17" t="s">
+        <v>118</v>
+      </c>
+      <c r="V17" t="s">
+        <v>105</v>
       </c>
       <c r="X17">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Y17">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.5660377358490566</v>
+        <v>0.625</v>
       </c>
       <c r="AA17">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1918,53 +1945,50 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X18">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.6097560975609756</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA18">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -1978,70 +2002,58 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K19">
         <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>101</v>
-      </c>
-      <c r="R19" t="s">
-        <v>105</v>
-      </c>
-      <c r="S19" t="s">
-        <v>107</v>
-      </c>
-      <c r="T19" t="s">
-        <v>111</v>
-      </c>
-      <c r="U19" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>104</v>
       </c>
       <c r="X19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Y19">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z19">
-        <v>0.4285714285714285</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA19">
-        <v>0.75</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB19">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2052,10 +2064,10 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2064,46 +2076,43 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
         <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y20">
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.5555555555555556</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2117,70 +2126,70 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="T21" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="U21" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="X21">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y21">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Z21">
-        <v>0.4716981132075472</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA21">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="AB21">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2191,55 +2200,46 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
         <v>15</v>
       </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
       <c r="I22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22">
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
+        <v>104</v>
       </c>
       <c r="Q22" t="s">
-        <v>101</v>
-      </c>
-      <c r="R22" t="s">
-        <v>106</v>
-      </c>
-      <c r="S22" t="s">
-        <v>107</v>
-      </c>
-      <c r="T22" t="s">
-        <v>109</v>
-      </c>
-      <c r="U22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="X22">
         <v>20</v>
@@ -2248,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA22">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2265,79 +2265,70 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
         <v>15</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>10</v>
-      </c>
-      <c r="I23">
-        <v>6</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
-      </c>
-      <c r="P23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="T23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="U23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V23" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="X23">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y23">
-        <v>1.052631578947368</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z23">
-        <v>0.5882352941176471</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA23">
-        <v>0.7894736842105263</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB23">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2351,58 +2342,67 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
         <v>12</v>
       </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
       <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
       <c r="K24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
-      </c>
-      <c r="P24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q24" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="R24" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" t="s">
+        <v>112</v>
+      </c>
+      <c r="T24" t="s">
+        <v>114</v>
+      </c>
+      <c r="U24" t="s">
+        <v>117</v>
       </c>
       <c r="X24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y24">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA24">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2413,58 +2413,79 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
       <c r="I25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>105</v>
+      </c>
+      <c r="R25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" t="s">
+        <v>112</v>
+      </c>
+      <c r="T25" t="s">
+        <v>115</v>
+      </c>
+      <c r="U25" t="s">
+        <v>118</v>
+      </c>
+      <c r="V25" t="s">
+        <v>105</v>
       </c>
       <c r="X25">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y25">
-        <v>0.8333333333333334</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z25">
-        <v>0.4545454545454545</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA25">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2477,53 +2498,56 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
       <c r="I26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
         <v>93</v>
       </c>
       <c r="O26" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="P26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>104</v>
       </c>
       <c r="X26">
         <v>14</v>
       </c>
       <c r="Y26">
-        <v>0.7142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z26">
-        <v>0.4166666666666667</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA26">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -2537,55 +2561,55 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
         <v>8</v>
       </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="X27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y27">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z27">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -2601,53 +2625,53 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O28" t="s">
-        <v>96</v>
-      </c>
-      <c r="P28" t="s">
         <v>100</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z28">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA28">
-        <v>1.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2661,55 +2685,55 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>5</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
       <c r="L29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="P29" t="s">
+        <v>104</v>
       </c>
       <c r="X29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y29">
+        <v>0.625</v>
+      </c>
+      <c r="Z29">
+        <v>0.3125</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>0.375</v>
-      </c>
-      <c r="AA29">
-        <v>1.666666666666667</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -2723,23 +2747,20 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
         <v>4</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
@@ -2747,31 +2768,34 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
+        <v>104</v>
       </c>
       <c r="X30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="AA30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -2785,22 +2809,22 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2809,33 +2833,157 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N31" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y31">
         <v>1</v>
       </c>
       <c r="Z31">
+        <v>0.375</v>
+      </c>
+      <c r="AA31">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N32" t="s">
+        <v>93</v>
+      </c>
+      <c r="O32" t="s">
+        <v>100</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA31">
+      <c r="AA32">
         <v>2</v>
       </c>
-      <c r="AB31">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>93</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Goblin</t>
   </si>
   <si>
+    <t>Astro</t>
+  </si>
+  <si>
     <t>CyGirl</t>
   </si>
   <si>
@@ -343,13 +346,13 @@
     <t>10</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>6</t>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,10 +831,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -890,10 +893,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -914,19 +917,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -952,10 +955,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -976,19 +979,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1014,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1038,19 +1041,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X5">
         <v>100</v>
@@ -1097,19 +1100,19 @@
         <v>150</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X6">
         <v>90</v>
@@ -1138,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>13</v>
@@ -1159,31 +1162,31 @@
         <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X7">
         <v>100</v>
@@ -1212,7 +1215,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -1233,31 +1236,31 @@
         <v>120</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X8">
         <v>96</v>
@@ -1304,19 +1307,19 @@
         <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X9">
         <v>80</v>
@@ -1342,13 +1345,13 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -1369,34 +1372,34 @@
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R10" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" t="s">
         <v>108</v>
       </c>
-      <c r="S10" t="s">
-        <v>107</v>
-      </c>
       <c r="T10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="X10">
         <v>100</v>
@@ -1422,13 +1425,13 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -1449,37 +1452,37 @@
         <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R11" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" t="s">
         <v>108</v>
       </c>
-      <c r="S11" t="s">
-        <v>107</v>
-      </c>
       <c r="T11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X11">
         <v>100</v>
@@ -1508,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1529,34 +1532,34 @@
         <v>90</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X12">
         <v>90</v>
@@ -1584,71 +1587,68 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
       <c r="F13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X13">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y13">
-        <v>1.027397260273973</v>
+        <v>1.25</v>
       </c>
       <c r="Z13">
-        <v>0.6637168141592921</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA13">
-        <v>0.547945205479452</v>
+        <v>0.625</v>
       </c>
       <c r="AB13">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1656,34 +1656,34 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>40</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>
@@ -1692,25 +1692,40 @@
         <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14" t="s">
+        <v>118</v>
       </c>
       <c r="X14">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y14">
-        <v>1.090909090909091</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z14">
-        <v>0.631578947368421</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA14">
-        <v>0.7272727272727273</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1718,76 +1733,61 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>40</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>15</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
       </c>
       <c r="K15">
         <v>60</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" t="s">
         <v>105</v>
       </c>
-      <c r="R15" t="s">
-        <v>109</v>
-      </c>
-      <c r="S15" t="s">
-        <v>113</v>
-      </c>
-      <c r="T15" t="s">
-        <v>114</v>
-      </c>
-      <c r="U15" t="s">
-        <v>117</v>
-      </c>
       <c r="X15">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y15">
-        <v>0.9836065573770492</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z15">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA15">
-        <v>0.5737704918032787</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB15">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1798,58 +1798,73 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" t="s">
+        <v>115</v>
+      </c>
+      <c r="U16" t="s">
+        <v>118</v>
       </c>
       <c r="X16">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Y16">
-        <v>1.063829787234043</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z16">
-        <v>0.6493506493506493</v>
+        <v>0.625</v>
       </c>
       <c r="AA16">
-        <v>0.6382978723404256</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1860,16 +1875,13 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -1878,61 +1890,43 @@
         <v>35</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K17">
         <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M17" t="s">
         <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" t="s">
         <v>105</v>
       </c>
-      <c r="R17" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" t="s">
-        <v>115</v>
-      </c>
-      <c r="U17" t="s">
-        <v>118</v>
-      </c>
-      <c r="V17" t="s">
-        <v>105</v>
-      </c>
       <c r="X17">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z17">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA17">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB17">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1943,55 +1937,79 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="T18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V18" t="s">
+        <v>106</v>
       </c>
       <c r="X18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="AA18">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2002,55 +2020,52 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X19">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y19">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA19">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2064,55 +2079,55 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
         <v>98</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X20">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z20">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA20">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2126,70 +2141,58 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O21" t="s">
         <v>101</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="P21" t="s">
         <v>105</v>
       </c>
-      <c r="R21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S21" t="s">
-        <v>112</v>
-      </c>
-      <c r="T21" t="s">
-        <v>116</v>
-      </c>
-      <c r="U21" t="s">
-        <v>119</v>
-      </c>
       <c r="X21">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA21">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AB21">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2200,28 +2203,28 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
         <v>80</v>
@@ -2230,31 +2233,40 @@
         <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q22" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="R22" t="s">
+        <v>112</v>
+      </c>
+      <c r="S22" t="s">
+        <v>113</v>
+      </c>
+      <c r="T22" t="s">
+        <v>117</v>
+      </c>
+      <c r="U22" t="s">
+        <v>120</v>
       </c>
       <c r="X22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z22">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2265,70 +2277,61 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H23">
         <v>15</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>105</v>
       </c>
       <c r="Q23" t="s">
         <v>105</v>
       </c>
-      <c r="R23" t="s">
-        <v>110</v>
-      </c>
-      <c r="S23" t="s">
-        <v>112</v>
-      </c>
-      <c r="T23" t="s">
-        <v>114</v>
-      </c>
-      <c r="U23" t="s">
-        <v>117</v>
-      </c>
       <c r="X23">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y23">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA23">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2339,70 +2342,70 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
         <v>15</v>
       </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
       <c r="I24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X24">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z24">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB24">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2415,11 +2418,8 @@
       <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2428,40 +2428,37 @@
         <v>15</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
         <v>102</v>
       </c>
-      <c r="P25" t="s">
-        <v>104</v>
-      </c>
       <c r="Q25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R25" t="s">
         <v>110</v>
       </c>
       <c r="S25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T25" t="s">
         <v>115</v>
@@ -2469,23 +2466,20 @@
       <c r="U25" t="s">
         <v>118</v>
       </c>
-      <c r="V25" t="s">
-        <v>105</v>
-      </c>
       <c r="X25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y25">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA25">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2498,59 +2492,77 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q26" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="R26" t="s">
+        <v>112</v>
+      </c>
+      <c r="S26" t="s">
+        <v>113</v>
+      </c>
+      <c r="T26" t="s">
+        <v>116</v>
+      </c>
+      <c r="U26" t="s">
+        <v>119</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
       </c>
       <c r="X26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y26">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z26">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA26">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2561,55 +2573,58 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
         <v>10</v>
       </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>105</v>
       </c>
       <c r="X27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y27">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z27">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA27">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -2623,13 +2638,10 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2638,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2650,28 +2662,31 @@
         <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O28" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>105</v>
       </c>
       <c r="X28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y28">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z28">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA28">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2685,55 +2700,55 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
-      </c>
-      <c r="P29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X29">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y29">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z29">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -2747,55 +2762,55 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
         <v>6</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y30">
+        <v>0.625</v>
+      </c>
+      <c r="Z30">
+        <v>0.3125</v>
+      </c>
+      <c r="AA30">
         <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>0.4</v>
-      </c>
-      <c r="AA30">
-        <v>1.5</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -2809,22 +2824,19 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2833,31 +2845,34 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>105</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y31">
         <v>1</v>
       </c>
       <c r="Z31">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA31">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -2871,22 +2886,22 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2895,31 +2910,31 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N32" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="AA32">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -2933,23 +2948,23 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -2957,22 +2972,22 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>1</v>
@@ -2984,6 +2999,68 @@
         <v>2</v>
       </c>
       <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" t="s">
+        <v>101</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -109,6 +109,9 @@
     <t>AngrySheep</t>
   </si>
   <si>
+    <t>Raptor</t>
+  </si>
+  <si>
     <t>Basilisk</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>Sheep</t>
   </si>
   <si>
+    <t>RAPTOR</t>
+  </si>
+  <si>
     <t>Dragon2</t>
   </si>
   <si>
@@ -301,6 +307,9 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>0.9</t>
   </si>
   <si>
@@ -308,9 +317,6 @@
   </si>
   <si>
     <t>1.3</t>
-  </si>
-  <si>
-    <t>1.1</t>
   </si>
   <si>
     <t>1.15</t>
@@ -734,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,10 +837,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -855,19 +861,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -893,10 +899,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -917,19 +923,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -955,10 +961,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -979,19 +985,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1017,10 +1023,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1041,19 +1047,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X5">
         <v>100</v>
@@ -1079,52 +1085,52 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="X6">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y6">
-        <v>1.666666666666667</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.080246913580247</v>
       </c>
       <c r="AA6">
-        <v>0.6666666666666666</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1140,68 +1146,53 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
         <v>70</v>
       </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
       <c r="I7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R7" t="s">
-        <v>107</v>
-      </c>
-      <c r="S7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" t="s">
-        <v>115</v>
-      </c>
-      <c r="U7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="X7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z7">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB7">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1215,67 +1206,67 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" t="s">
+        <v>115</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
         <v>120</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S8" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" t="s">
-        <v>115</v>
-      </c>
-      <c r="U8" t="s">
-        <v>118</v>
-      </c>
       <c r="X8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y8">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z8">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA8">
         <v>0.5</v>
       </c>
       <c r="AB8">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1288,53 +1279,68 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
       <c r="F9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9" t="s">
+        <v>120</v>
       </c>
       <c r="X9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="Y9">
         <v>1.25</v>
       </c>
       <c r="Z9">
-        <v>0.7692307692307693</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA9">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1345,25 +1351,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>20</v>
@@ -1372,49 +1372,34 @@
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" t="s">
-        <v>108</v>
-      </c>
-      <c r="T10" t="s">
-        <v>116</v>
-      </c>
-      <c r="U10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="X10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z10">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA10">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB10">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1422,13 +1407,13 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
@@ -1452,37 +1437,34 @@
         <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="T11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U11" t="s">
-        <v>119</v>
-      </c>
-      <c r="W11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="X11">
         <v>100</v>
@@ -1505,64 +1487,70 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" t="s">
+        <v>118</v>
+      </c>
+      <c r="U12" t="s">
+        <v>121</v>
+      </c>
+      <c r="W12" t="s">
         <v>108</v>
       </c>
-      <c r="S12" t="s">
-        <v>113</v>
-      </c>
-      <c r="T12" t="s">
-        <v>115</v>
-      </c>
-      <c r="U12" t="s">
-        <v>118</v>
-      </c>
       <c r="X12">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1574,7 +1562,7 @@
         <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1587,68 +1575,71 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
       <c r="F13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>50</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s">
         <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R13" t="s">
         <v>110</v>
       </c>
       <c r="S13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X13">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA13">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>150</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1661,71 +1652,68 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
       <c r="F14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X14">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y14">
-        <v>1.027397260273973</v>
+        <v>1.25</v>
       </c>
       <c r="Z14">
-        <v>0.6637168141592921</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA14">
-        <v>0.547945205479452</v>
+        <v>0.625</v>
       </c>
       <c r="AB14">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1733,61 +1721,76 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>40</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O15" t="s">
         <v>104</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" t="s">
+        <v>117</v>
+      </c>
+      <c r="U15" t="s">
+        <v>120</v>
       </c>
       <c r="X15">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y15">
-        <v>1.090909090909091</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z15">
-        <v>0.631578947368421</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA15">
-        <v>0.7272727272727273</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1795,76 +1798,61 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <v>40</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>15</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
       </c>
       <c r="K16">
         <v>60</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
         <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>106</v>
-      </c>
-      <c r="R16" t="s">
-        <v>111</v>
-      </c>
-      <c r="S16" t="s">
-        <v>114</v>
-      </c>
-      <c r="T16" t="s">
-        <v>115</v>
-      </c>
-      <c r="U16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="X16">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y16">
-        <v>0.9836065573770492</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z16">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA16">
-        <v>0.5737704918032787</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB16">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1875,58 +1863,73 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" t="s">
+        <v>116</v>
+      </c>
+      <c r="T17" t="s">
+        <v>117</v>
+      </c>
+      <c r="U17" t="s">
+        <v>120</v>
       </c>
       <c r="X17">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Y17">
-        <v>1.063829787234043</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z17">
-        <v>0.6493506493506493</v>
+        <v>0.625</v>
       </c>
       <c r="AA17">
-        <v>0.6382978723404256</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1937,16 +1940,13 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -1955,61 +1955,43 @@
         <v>35</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K18">
         <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O18" t="s">
         <v>103</v>
       </c>
       <c r="P18" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>106</v>
-      </c>
-      <c r="R18" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" t="s">
-        <v>113</v>
-      </c>
-      <c r="T18" t="s">
-        <v>116</v>
-      </c>
-      <c r="U18" t="s">
-        <v>119</v>
-      </c>
-      <c r="V18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X18">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z18">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA18">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB18">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2020,55 +2002,79 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
         <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" t="s">
+        <v>115</v>
+      </c>
+      <c r="T19" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" t="s">
+        <v>121</v>
+      </c>
+      <c r="V19" t="s">
+        <v>108</v>
       </c>
       <c r="X19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y19">
         <v>1</v>
       </c>
       <c r="Z19">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="AA19">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2079,55 +2085,52 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X20">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y20">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA20">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2141,55 +2144,55 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X21">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z21">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA21">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2203,70 +2206,58 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M22" t="s">
         <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>106</v>
-      </c>
-      <c r="R22" t="s">
-        <v>112</v>
-      </c>
-      <c r="S22" t="s">
-        <v>113</v>
-      </c>
-      <c r="T22" t="s">
-        <v>117</v>
-      </c>
-      <c r="U22" t="s">
-        <v>120</v>
+        <v>103</v>
+      </c>
+      <c r="P22" t="s">
+        <v>107</v>
       </c>
       <c r="X22">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA22">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AB22">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2277,61 +2268,70 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
-      </c>
-      <c r="P23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q23" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="R23" t="s">
+        <v>114</v>
+      </c>
+      <c r="S23" t="s">
+        <v>115</v>
+      </c>
+      <c r="T23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U23" t="s">
+        <v>122</v>
       </c>
       <c r="X23">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z23">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2342,70 +2342,61 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>15</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>107</v>
       </c>
       <c r="Q24" t="s">
-        <v>106</v>
-      </c>
-      <c r="R24" t="s">
-        <v>112</v>
-      </c>
-      <c r="S24" t="s">
-        <v>113</v>
-      </c>
-      <c r="T24" t="s">
-        <v>115</v>
-      </c>
-      <c r="U24" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="X24">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y24">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA24">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2416,70 +2407,70 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
         <v>15</v>
       </c>
-      <c r="H25">
-        <v>12</v>
-      </c>
       <c r="I25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X25">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z25">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB25">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2492,9 +2483,6 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
       <c r="E26" t="s">
         <v>71</v>
       </c>
@@ -2505,64 +2493,58 @@
         <v>15</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
         <v>89</v>
       </c>
       <c r="N26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O26" t="s">
-        <v>103</v>
-      </c>
-      <c r="P26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R26" t="s">
         <v>112</v>
       </c>
       <c r="S26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U26" t="s">
-        <v>119</v>
-      </c>
-      <c r="V26" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="X26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y26">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA26">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AB26">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2575,59 +2557,77 @@
       <c r="C27" t="s">
         <v>52</v>
       </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q27" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="R27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" t="s">
+        <v>118</v>
+      </c>
+      <c r="U27" t="s">
+        <v>121</v>
+      </c>
+      <c r="V27" t="s">
+        <v>108</v>
       </c>
       <c r="X27">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y27">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z27">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA27">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2638,55 +2638,58 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>107</v>
       </c>
       <c r="X28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y28">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z28">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA28">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2700,13 +2703,10 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2727,28 +2727,31 @@
         <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="P29" t="s">
+        <v>107</v>
       </c>
       <c r="X29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y29">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z29">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA29">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -2762,55 +2765,55 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y30">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z30">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -2824,55 +2827,55 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y31">
+        <v>0.625</v>
+      </c>
+      <c r="Z31">
+        <v>0.3125</v>
+      </c>
+      <c r="AA31">
         <v>1</v>
-      </c>
-      <c r="Z31">
-        <v>0.4</v>
-      </c>
-      <c r="AA31">
-        <v>1.5</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -2886,22 +2889,19 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2910,31 +2910,34 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="P32" t="s">
+        <v>107</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA32">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -2948,22 +2951,22 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2972,31 +2975,31 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -3010,23 +3013,23 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
         <v>2</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
       <c r="I34">
         <v>0</v>
       </c>
@@ -3034,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -3061,6 +3064,68 @@
         <v>2</v>
       </c>
       <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" t="s">
+        <v>96</v>
+      </c>
+      <c r="O35" t="s">
+        <v>103</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Raptor</t>
   </si>
   <si>
+    <t>DinoAir</t>
+  </si>
+  <si>
     <t>Basilisk</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>MonsterAttack2</t>
   </si>
   <si>
+    <t>BirdScreech</t>
+  </si>
+  <si>
     <t>HumanAttack1</t>
   </si>
   <si>
@@ -283,15 +289,15 @@
     <t>MonsterHurt2</t>
   </si>
   <si>
+    <t>MonsterHurt</t>
+  </si>
+  <si>
     <t>Ow</t>
   </si>
   <si>
     <t>MonsterHurt3</t>
   </si>
   <si>
-    <t>MonsterHurt</t>
-  </si>
-  <si>
     <t>PiercingScream</t>
   </si>
   <si>
@@ -343,15 +349,15 @@
     <t>true</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -367,19 +373,19 @@
     <t>17</t>
   </si>
   <si>
+    <t>Blue3D_Bouncer</t>
+  </si>
+  <si>
     <t>BouncingMissile</t>
   </si>
   <si>
-    <t>Blue3D_Bouncer</t>
-  </si>
-  <si>
     <t>Missile</t>
   </si>
   <si>
+    <t>COMMON_ITEM_TYPE.BlueBounceball</t>
+  </si>
+  <si>
     <t>COMMON_ITEM_TYPE.Bounceball</t>
-  </si>
-  <si>
-    <t>COMMON_ITEM_TYPE.BlueBounceball</t>
   </si>
   <si>
     <t>COMMON_ITEM_TYPE.RedFireball</t>
@@ -740,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,10 +843,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -899,10 +905,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -961,10 +967,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -985,19 +991,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1023,10 +1029,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1047,19 +1053,19 @@
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X5">
         <v>100</v>
@@ -1085,7 +1091,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1106,19 +1112,19 @@
         <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X6">
         <v>97</v>
@@ -1146,53 +1152,74 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
       <c r="F7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>70</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s">
         <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
+        <v>109</v>
       </c>
       <c r="Q7" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="R7" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" t="s">
+        <v>122</v>
       </c>
       <c r="X7">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="Y7">
-        <v>1.666666666666667</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.5347593582887701</v>
       </c>
       <c r="AA7">
-        <v>0.6666666666666666</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1205,68 +1232,53 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
       <c r="F8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I8">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L8" t="s">
         <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" t="s">
-        <v>115</v>
-      </c>
-      <c r="T8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y8">
-        <v>1.3</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z8">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB8">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1283,64 +1295,64 @@
         <v>73</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" t="s">
         <v>120</v>
       </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" t="s">
-        <v>115</v>
-      </c>
-      <c r="T9" t="s">
-        <v>117</v>
-      </c>
       <c r="U9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="X9">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y9">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z9">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA9">
         <v>0.5</v>
       </c>
       <c r="AB9">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1353,53 +1365,68 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
       <c r="F10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" t="s">
+        <v>123</v>
       </c>
       <c r="X10">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="Y10">
         <v>1.25</v>
       </c>
       <c r="Z10">
-        <v>0.7692307692307693</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA10">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1410,25 +1437,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>20</v>
@@ -1437,49 +1458,34 @@
         <v>100</v>
       </c>
       <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11">
         <v>80</v>
       </c>
-      <c r="M11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" t="s">
-        <v>110</v>
-      </c>
-      <c r="T11" t="s">
-        <v>118</v>
-      </c>
-      <c r="U11" t="s">
-        <v>121</v>
-      </c>
-      <c r="X11">
-        <v>100</v>
-      </c>
       <c r="Y11">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z11">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB11">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1487,16 +1493,16 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -1517,37 +1523,34 @@
         <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" t="s">
         <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R12" t="s">
         <v>111</v>
       </c>
       <c r="S12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U12" t="s">
-        <v>121</v>
-      </c>
-      <c r="W12" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="X12">
         <v>100</v>
@@ -1570,64 +1573,70 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>50</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
         <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R13" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" t="s">
+        <v>119</v>
+      </c>
+      <c r="U13" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" t="s">
         <v>110</v>
       </c>
-      <c r="S13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T13" t="s">
-        <v>117</v>
-      </c>
-      <c r="U13" t="s">
-        <v>120</v>
-      </c>
       <c r="X13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1639,7 +1648,7 @@
         <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1652,68 +1661,71 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
       <c r="F14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>50</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="X14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA14">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB14">
-        <v>150</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1726,71 +1738,68 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
       <c r="F15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="T15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="X15">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y15">
-        <v>1.027397260273973</v>
+        <v>1.25</v>
       </c>
       <c r="Z15">
-        <v>0.6637168141592921</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA15">
-        <v>0.547945205479452</v>
+        <v>0.625</v>
       </c>
       <c r="AB15">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1798,61 +1807,76 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>40</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s">
         <v>106</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" t="s">
+        <v>120</v>
+      </c>
+      <c r="U16" t="s">
+        <v>123</v>
       </c>
       <c r="X16">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y16">
-        <v>1.090909090909091</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z16">
-        <v>0.631578947368421</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA16">
-        <v>0.7272727272727273</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1860,76 +1884,61 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>40</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>15</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
       </c>
       <c r="K17">
         <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" t="s">
-        <v>116</v>
-      </c>
-      <c r="T17" t="s">
-        <v>117</v>
-      </c>
-      <c r="U17" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="X17">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y17">
-        <v>0.9836065573770492</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z17">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA17">
-        <v>0.5737704918032787</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB17">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1940,58 +1949,73 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
         <v>97</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" t="s">
+        <v>120</v>
+      </c>
+      <c r="U18" t="s">
+        <v>123</v>
       </c>
       <c r="X18">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Y18">
-        <v>1.063829787234043</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z18">
-        <v>0.6493506493506493</v>
+        <v>0.625</v>
       </c>
       <c r="AA18">
-        <v>0.6382978723404256</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2002,16 +2026,13 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>30</v>
@@ -2020,61 +2041,43 @@
         <v>35</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K19">
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O19" t="s">
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19" t="s">
-        <v>110</v>
-      </c>
-      <c r="S19" t="s">
-        <v>115</v>
-      </c>
-      <c r="T19" t="s">
-        <v>118</v>
-      </c>
-      <c r="U19" t="s">
-        <v>121</v>
-      </c>
-      <c r="V19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X19">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z19">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA19">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB19">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2085,55 +2088,79 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S20" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" t="s">
+        <v>119</v>
+      </c>
+      <c r="U20" t="s">
+        <v>122</v>
+      </c>
+      <c r="V20" t="s">
+        <v>110</v>
       </c>
       <c r="X20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y20">
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="AA20">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2144,55 +2171,52 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X21">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y21">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA21">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2206,55 +2230,55 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M22" t="s">
         <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X22">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z22">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA22">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -2268,70 +2292,58 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>108</v>
-      </c>
-      <c r="R23" t="s">
-        <v>114</v>
-      </c>
-      <c r="S23" t="s">
-        <v>115</v>
-      </c>
-      <c r="T23" t="s">
-        <v>119</v>
-      </c>
-      <c r="U23" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="P23" t="s">
+        <v>109</v>
       </c>
       <c r="X23">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA23">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AB23">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2342,61 +2354,70 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q24" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="R24" t="s">
+        <v>116</v>
+      </c>
+      <c r="S24" t="s">
+        <v>117</v>
+      </c>
+      <c r="T24" t="s">
+        <v>121</v>
+      </c>
+      <c r="U24" t="s">
+        <v>124</v>
       </c>
       <c r="X24">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z24">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2407,70 +2428,61 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H25">
         <v>15</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>109</v>
       </c>
       <c r="Q25" t="s">
-        <v>108</v>
-      </c>
-      <c r="R25" t="s">
-        <v>114</v>
-      </c>
-      <c r="S25" t="s">
-        <v>115</v>
-      </c>
-      <c r="T25" t="s">
-        <v>117</v>
-      </c>
-      <c r="U25" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="X25">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y25">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA25">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2481,70 +2493,70 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
         <v>15</v>
       </c>
-      <c r="H26">
-        <v>12</v>
-      </c>
       <c r="I26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="S26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="X26">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z26">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA26">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB26">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2557,11 +2569,8 @@
       <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -2570,64 +2579,58 @@
         <v>15</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R27" t="s">
         <v>114</v>
       </c>
       <c r="S27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
-      </c>
-      <c r="V27" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="X27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y27">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA27">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AB27">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2640,59 +2643,77 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q28" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="R28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" t="s">
+        <v>117</v>
+      </c>
+      <c r="T28" t="s">
+        <v>119</v>
+      </c>
+      <c r="U28" t="s">
+        <v>122</v>
+      </c>
+      <c r="V28" t="s">
+        <v>110</v>
       </c>
       <c r="X28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y28">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z28">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA28">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2703,55 +2724,58 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
         <v>10</v>
       </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>109</v>
       </c>
       <c r="X29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y29">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z29">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA29">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -2765,13 +2789,10 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2780,10 +2801,10 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2792,28 +2813,31 @@
         <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M30" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="P30" t="s">
+        <v>109</v>
       </c>
       <c r="X30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y30">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z30">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA30">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -2827,55 +2851,55 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>103</v>
-      </c>
-      <c r="P31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X31">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y31">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z31">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -2889,55 +2913,55 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M32" t="s">
         <v>91</v>
       </c>
       <c r="N32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y32">
+        <v>0.625</v>
+      </c>
+      <c r="Z32">
+        <v>0.3125</v>
+      </c>
+      <c r="AA32">
         <v>1</v>
-      </c>
-      <c r="Z32">
-        <v>0.4</v>
-      </c>
-      <c r="AA32">
-        <v>1.5</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -2951,22 +2975,19 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2975,31 +2996,34 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O33" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>109</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA33">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -3013,22 +3037,22 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3037,31 +3061,31 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N34" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y34">
         <v>1</v>
       </c>
       <c r="Z34">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -3075,23 +3099,23 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -3099,22 +3123,22 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -3126,6 +3150,68 @@
         <v>2</v>
       </c>
       <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
+        <v>105</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -106,12 +106,18 @@
     <t>GreatChick</t>
   </si>
   <si>
+    <t>NecroMorph</t>
+  </si>
+  <si>
     <t>AngrySheep</t>
   </si>
   <si>
     <t>Raptor</t>
   </si>
   <si>
+    <t>GreenBasilisk</t>
+  </si>
+  <si>
     <t>DinoAir</t>
   </si>
   <si>
@@ -235,6 +241,9 @@
     <t>null</t>
   </si>
   <si>
+    <t>GOLD_ITEM_TYPE.GoldSphere</t>
+  </si>
+  <si>
     <t>GOLD_ITEM_TYPE.GoldBar</t>
   </si>
   <si>
@@ -253,15 +262,15 @@
     <t>MonsterAttack1</t>
   </si>
   <si>
+    <t>HumanAttack1</t>
+  </si>
+  <si>
     <t>MonsterAttack2</t>
   </si>
   <si>
     <t>BirdScreech</t>
   </si>
   <si>
-    <t>HumanAttack1</t>
-  </si>
-  <si>
     <t>DragonRoar</t>
   </si>
   <si>
@@ -286,15 +295,15 @@
     <t>PainSqueek</t>
   </si>
   <si>
+    <t>Ow</t>
+  </si>
+  <si>
     <t>MonsterHurt2</t>
   </si>
   <si>
     <t>MonsterHurt</t>
   </si>
   <si>
-    <t>Ow</t>
-  </si>
-  <si>
     <t>MonsterHurt3</t>
   </si>
   <si>
@@ -310,18 +319,21 @@
     <t>1.2</t>
   </si>
   <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>0.99</t>
+  </si>
+  <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
@@ -337,18 +349,21 @@
     <t>MATERIAL.standardShine</t>
   </si>
   <si>
+    <t>MATERIAL.greenFluence</t>
+  </si>
+  <si>
     <t>MATERIAL.gold</t>
   </si>
   <si>
-    <t>MATERIAL.greenFluence</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -361,31 +376,28 @@
     <t>5</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>17</t>
+    <t>BouncingMissile</t>
   </si>
   <si>
     <t>Blue3D_Bouncer</t>
   </si>
   <si>
-    <t>BouncingMissile</t>
-  </si>
-  <si>
     <t>Missile</t>
   </si>
   <si>
+    <t>COMMON_ITEM_TYPE.Bounceball</t>
+  </si>
+  <si>
     <t>COMMON_ITEM_TYPE.BlueBounceball</t>
-  </si>
-  <si>
-    <t>COMMON_ITEM_TYPE.Bounceball</t>
   </si>
   <si>
     <t>COMMON_ITEM_TYPE.RedFireball</t>
@@ -746,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,10 +855,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -867,19 +879,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -905,10 +917,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -929,19 +941,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -967,10 +979,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -991,19 +1003,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1029,58 +1041,70 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" t="s">
+        <v>126</v>
       </c>
       <c r="X5">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="Z5">
-        <v>0.4545454545454545</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="AA5">
-        <v>0.1</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1091,52 +1115,55 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" t="s">
         <v>109</v>
       </c>
+      <c r="P6" t="s">
+        <v>113</v>
+      </c>
       <c r="X6">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y6">
-        <v>1.804123711340206</v>
+        <v>0.5</v>
       </c>
       <c r="Z6">
-        <v>1.080246913580247</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA6">
-        <v>0.6701030927835051</v>
+        <v>0.1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1150,76 +1177,55 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>65</v>
       </c>
       <c r="H7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" t="s">
-        <v>111</v>
-      </c>
-      <c r="S7" t="s">
         <v>113</v>
       </c>
-      <c r="T7" t="s">
-        <v>119</v>
-      </c>
-      <c r="U7" t="s">
-        <v>122</v>
-      </c>
       <c r="X7">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="Y7">
-        <v>0.819672131147541</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="Z7">
-        <v>0.5347593582887701</v>
+        <v>1.080246913580247</v>
       </c>
       <c r="AA7">
-        <v>0.5327868852459017</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="AB7">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1230,16 +1236,16 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1248,34 +1254,34 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y8">
-        <v>1.666666666666667</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>1.09375</v>
       </c>
       <c r="AA8">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1291,68 +1297,74 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>13</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="P9" t="s">
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X9">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Y9">
-        <v>1.3</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Z9">
-        <v>0.8666666666666667</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="AB9">
-        <v>338</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1365,68 +1377,53 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
       <c r="F10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" t="s">
         <v>113</v>
       </c>
-      <c r="S10" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" t="s">
-        <v>123</v>
-      </c>
       <c r="X10">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y10">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z10">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB10">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1439,53 +1436,68 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
       <c r="F11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
         <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" t="s">
+        <v>126</v>
       </c>
       <c r="X11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y11">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z11">
-        <v>0.7692307692307693</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA11">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1496,76 +1508,70 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
         <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="X12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z12">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA12">
         <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1573,28 +1579,22 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>20</v>
@@ -1603,52 +1603,34 @@
         <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" t="s">
-        <v>111</v>
-      </c>
-      <c r="S13" t="s">
         <v>113</v>
       </c>
-      <c r="T13" t="s">
-        <v>119</v>
-      </c>
-      <c r="U13" t="s">
-        <v>122</v>
-      </c>
-      <c r="W13" t="s">
-        <v>110</v>
-      </c>
       <c r="X13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z13">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB13">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1659,61 +1641,64 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>50</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="X14">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1725,7 +1710,7 @@
         <v>0.5</v>
       </c>
       <c r="AB14">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1733,13 +1718,19 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>50</v>
@@ -1751,55 +1742,58 @@
         <v>30</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" t="s">
         <v>114</v>
       </c>
-      <c r="S15" t="s">
-        <v>117</v>
-      </c>
-      <c r="T15" t="s">
-        <v>120</v>
-      </c>
-      <c r="U15" t="s">
-        <v>123</v>
-      </c>
       <c r="X15">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA15">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB15">
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1813,70 +1807,70 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="S16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X16">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Y16">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA16">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AB16">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1884,61 +1878,73 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
         <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" t="s">
+        <v>119</v>
+      </c>
+      <c r="S17" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" t="s">
+        <v>126</v>
       </c>
       <c r="X17">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Y17">
-        <v>1.090909090909091</v>
+        <v>1.25</v>
       </c>
       <c r="Z17">
-        <v>0.631578947368421</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA17">
-        <v>0.7272727272727273</v>
+        <v>0.625</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1949,73 +1955,73 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>114</v>
+      </c>
+      <c r="R18" t="s">
+        <v>118</v>
+      </c>
+      <c r="S18" t="s">
+        <v>119</v>
+      </c>
+      <c r="T18" t="s">
+        <v>123</v>
+      </c>
+      <c r="U18" t="s">
+        <v>126</v>
+      </c>
+      <c r="X18">
         <v>73</v>
       </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>35</v>
-      </c>
-      <c r="H18">
-        <v>40</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>60</v>
-      </c>
-      <c r="L18" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" t="s">
-        <v>115</v>
-      </c>
-      <c r="S18" t="s">
-        <v>118</v>
-      </c>
-      <c r="T18" t="s">
-        <v>120</v>
-      </c>
-      <c r="U18" t="s">
-        <v>123</v>
-      </c>
-      <c r="X18">
-        <v>61</v>
-      </c>
       <c r="Y18">
-        <v>0.9836065573770492</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z18">
-        <v>0.625</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA18">
-        <v>0.5737704918032787</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB18">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2023,58 +2029,58 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X19">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Y19">
-        <v>1.063829787234043</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z19">
-        <v>0.6493506493506493</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA19">
-        <v>0.6382978723404256</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2088,79 +2094,73 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>35</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
       <c r="K20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="T20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U20" t="s">
-        <v>122</v>
-      </c>
-      <c r="V20" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="X20">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z20">
         <v>0.625</v>
       </c>
       <c r="AA20">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB20">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2173,50 +2173,53 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L21" t="s">
         <v>81</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X21">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z21">
-        <v>0.6153846153846154</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA21">
-        <v>0.625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2230,58 +2233,79 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>114</v>
+      </c>
+      <c r="R22" t="s">
+        <v>118</v>
+      </c>
+      <c r="S22" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" t="s">
+        <v>124</v>
+      </c>
+      <c r="U22" t="s">
+        <v>127</v>
+      </c>
+      <c r="V22" t="s">
+        <v>114</v>
       </c>
       <c r="X22">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Y22">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.5660377358490566</v>
+        <v>0.625</v>
       </c>
       <c r="AA22">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2294,53 +2318,50 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X23">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.6097560975609756</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA23">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -2354,70 +2375,58 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s">
         <v>95</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O24" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" t="s">
-        <v>117</v>
-      </c>
-      <c r="T24" t="s">
-        <v>121</v>
-      </c>
-      <c r="U24" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+      <c r="P24" t="s">
+        <v>113</v>
       </c>
       <c r="X24">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Y24">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z24">
-        <v>0.4285714285714285</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB24">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2428,10 +2437,10 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2440,46 +2449,43 @@
         <v>16</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P25" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.5555555555555556</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -2493,70 +2499,70 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="T26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="U26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="X26">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y26">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Z26">
-        <v>0.4716981132075472</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA26">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="AB26">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2567,55 +2573,46 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
         <v>15</v>
       </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
       <c r="I27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="P27" t="s">
+        <v>113</v>
       </c>
       <c r="Q27" t="s">
-        <v>110</v>
-      </c>
-      <c r="R27" t="s">
-        <v>114</v>
-      </c>
-      <c r="S27" t="s">
-        <v>117</v>
-      </c>
-      <c r="T27" t="s">
-        <v>120</v>
-      </c>
-      <c r="U27" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="X27">
         <v>20</v>
@@ -2624,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA27">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2641,79 +2638,70 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28">
         <v>15</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>10</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O28" t="s">
-        <v>107</v>
-      </c>
-      <c r="P28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S28" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="T28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U28" t="s">
-        <v>122</v>
-      </c>
-      <c r="V28" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="X28">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y28">
-        <v>1.052631578947368</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z28">
-        <v>0.5882352941176471</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA28">
-        <v>0.7894736842105263</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB28">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2727,58 +2715,67 @@
         <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
         <v>12</v>
       </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
       <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
       <c r="K29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="R29" t="s">
+        <v>119</v>
+      </c>
+      <c r="S29" t="s">
+        <v>122</v>
+      </c>
+      <c r="T29" t="s">
+        <v>123</v>
+      </c>
+      <c r="U29" t="s">
+        <v>126</v>
       </c>
       <c r="X29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y29">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA29">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -2789,58 +2786,79 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
         <v>10</v>
       </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
       <c r="I30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>114</v>
+      </c>
+      <c r="R30" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" t="s">
+        <v>124</v>
+      </c>
+      <c r="U30" t="s">
+        <v>127</v>
+      </c>
+      <c r="V30" t="s">
+        <v>114</v>
       </c>
       <c r="X30">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y30">
-        <v>0.8333333333333334</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z30">
-        <v>0.4545454545454545</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA30">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2853,53 +2871,56 @@
       <c r="C31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
         <v>10</v>
       </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
       <c r="I31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O31" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="P31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>113</v>
       </c>
       <c r="X31">
         <v>14</v>
       </c>
       <c r="Y31">
-        <v>0.7142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z31">
-        <v>0.4166666666666667</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA31">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -2913,55 +2934,55 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
         <v>8</v>
       </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N32" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="X32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y32">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z32">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -2977,53 +2998,53 @@
       <c r="C33" t="s">
         <v>58</v>
       </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L33" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O33" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" t="s">
         <v>109</v>
       </c>
       <c r="X33">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z33">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA33">
-        <v>1.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -3037,55 +3058,55 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
         <v>5</v>
       </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="P34" t="s">
+        <v>113</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y34">
+        <v>0.625</v>
+      </c>
+      <c r="Z34">
+        <v>0.3125</v>
+      </c>
+      <c r="AA34">
         <v>1</v>
-      </c>
-      <c r="Z34">
-        <v>0.375</v>
-      </c>
-      <c r="AA34">
-        <v>1.666666666666667</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -3099,23 +3120,20 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -3123,31 +3141,34 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M35" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="P35" t="s">
+        <v>113</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y35">
         <v>1</v>
       </c>
       <c r="Z35">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="AA35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -3161,22 +3182,22 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3185,33 +3206,157 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N36" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
       <c r="Z36">
+        <v>0.375</v>
+      </c>
+      <c r="AA36">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" t="s">
+        <v>90</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA36">
+      <c r="AA37">
         <v>2</v>
       </c>
-      <c r="AB36">
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" t="s">
+        <v>90</v>
+      </c>
+      <c r="N38" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -106,6 +106,9 @@
     <t>GreatChick</t>
   </si>
   <si>
+    <t>Hunteress</t>
+  </si>
+  <si>
     <t>NecroMorph</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>Chicken</t>
+  </si>
+  <si>
+    <t>Hunter</t>
   </si>
   <si>
     <t>Sheep</t>
@@ -758,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -879,19 +885,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -917,10 +923,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -941,19 +947,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -979,10 +985,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1003,19 +1009,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1041,22 +1047,22 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1065,46 +1071,46 @@
         <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X5">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Y5">
-        <v>1.851851851851852</v>
+        <v>1.76056338028169</v>
       </c>
       <c r="Z5">
-        <v>1.219512195121951</v>
+        <v>1.168224299065421</v>
       </c>
       <c r="AA5">
-        <v>0.5185185185185185</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="AB5">
-        <v>455</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1115,58 +1121,70 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U6" t="s">
+        <v>128</v>
       </c>
       <c r="X6">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="Z6">
-        <v>0.4545454545454545</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="AA6">
-        <v>0.1</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1177,52 +1195,55 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
         <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="P7" t="s">
+        <v>115</v>
       </c>
       <c r="X7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y7">
-        <v>1.804123711340206</v>
+        <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>1.080246913580247</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA7">
-        <v>0.6701030927835051</v>
+        <v>0.1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1236,7 +1257,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1251,37 +1272,37 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>175</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y8">
-        <v>1.842105263157895</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="Z8">
-        <v>1.09375</v>
+        <v>1.080246913580247</v>
       </c>
       <c r="AA8">
-        <v>0.6842105263157895</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1295,76 +1316,55 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>65</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>20</v>
       </c>
       <c r="K9">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9">
         <v>95</v>
       </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9">
-        <v>122</v>
-      </c>
       <c r="Y9">
-        <v>1.639344262295082</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="Z9">
-        <v>1.06951871657754</v>
+        <v>1.09375</v>
       </c>
       <c r="AA9">
-        <v>0.5327868852459017</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AB9">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1377,53 +1377,74 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
       <c r="F10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H10">
         <v>70</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>20</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>115</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="R10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" t="s">
+        <v>129</v>
       </c>
       <c r="X10">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="Y10">
-        <v>1.666666666666667</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="AA10">
-        <v>0.6666666666666666</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1436,68 +1457,53 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
       <c r="F11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I11">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="s">
-        <v>114</v>
-      </c>
-      <c r="R11" t="s">
-        <v>117</v>
-      </c>
-      <c r="S11" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="X11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y11">
-        <v>1.3</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z11">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB11">
-        <v>338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1511,67 +1517,67 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X12">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y12">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z12">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA12">
         <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1584,53 +1590,68 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
       <c r="F13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13">
         <v>96</v>
-      </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13">
-        <v>80</v>
       </c>
       <c r="Y13">
         <v>1.25</v>
       </c>
       <c r="Z13">
-        <v>0.7692307692307693</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA13">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1641,25 +1662,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>20</v>
@@ -1668,10 +1683,10 @@
         <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>102</v>
@@ -1680,37 +1695,22 @@
         <v>112</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>114</v>
-      </c>
-      <c r="R14" t="s">
-        <v>116</v>
-      </c>
-      <c r="S14" t="s">
-        <v>118</v>
-      </c>
-      <c r="T14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="X14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z14">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA14">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB14">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1718,13 +1718,13 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
@@ -1748,37 +1748,34 @@
         <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U15" t="s">
-        <v>127</v>
-      </c>
-      <c r="W15" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="X15">
         <v>100</v>
@@ -1801,64 +1798,70 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <v>50</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
         <v>118</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U16" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="W16" t="s">
+        <v>116</v>
       </c>
       <c r="X16">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -1870,7 +1873,7 @@
         <v>0.5</v>
       </c>
       <c r="AB16">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1883,68 +1886,71 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
       <c r="F17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <v>50</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X17">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA17">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB17">
-        <v>150</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1957,71 +1963,68 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
       <c r="F18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="T18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X18">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y18">
-        <v>1.027397260273973</v>
+        <v>1.25</v>
       </c>
       <c r="Z18">
-        <v>0.6637168141592921</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA18">
-        <v>0.547945205479452</v>
+        <v>0.625</v>
       </c>
       <c r="AB18">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2029,61 +2032,76 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>40</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" t="s">
+        <v>121</v>
+      </c>
+      <c r="T19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U19" t="s">
+        <v>128</v>
       </c>
       <c r="X19">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y19">
-        <v>1.090909090909091</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z19">
-        <v>0.631578947368421</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA19">
-        <v>0.7272727272727273</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2091,76 +2109,61 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>40</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>15</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
       </c>
       <c r="K20">
         <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" t="s">
         <v>115</v>
       </c>
-      <c r="S20" t="s">
-        <v>121</v>
-      </c>
-      <c r="T20" t="s">
-        <v>123</v>
-      </c>
-      <c r="U20" t="s">
-        <v>126</v>
-      </c>
       <c r="X20">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y20">
-        <v>0.9836065573770492</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z20">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA20">
-        <v>0.5737704918032787</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB20">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2171,58 +2174,73 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" t="s">
+        <v>117</v>
+      </c>
+      <c r="S21" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" t="s">
+        <v>125</v>
+      </c>
+      <c r="U21" t="s">
+        <v>128</v>
       </c>
       <c r="X21">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Y21">
-        <v>1.063829787234043</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z21">
-        <v>0.6493506493506493</v>
+        <v>0.625</v>
       </c>
       <c r="AA21">
-        <v>0.6382978723404256</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2233,16 +2251,13 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>76</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -2251,61 +2266,43 @@
         <v>35</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K22">
         <v>50</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>114</v>
-      </c>
-      <c r="R22" t="s">
-        <v>118</v>
-      </c>
-      <c r="S22" t="s">
-        <v>122</v>
-      </c>
-      <c r="T22" t="s">
-        <v>124</v>
-      </c>
-      <c r="U22" t="s">
-        <v>127</v>
-      </c>
-      <c r="V22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X22">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z22">
-        <v>0.625</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA22">
-        <v>0.6</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB22">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2316,55 +2313,79 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>116</v>
+      </c>
+      <c r="R23" t="s">
+        <v>120</v>
+      </c>
+      <c r="S23" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23" t="s">
+        <v>126</v>
+      </c>
+      <c r="U23" t="s">
+        <v>129</v>
+      </c>
+      <c r="V23" t="s">
+        <v>116</v>
       </c>
       <c r="X23">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="AA23">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2375,55 +2396,52 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X24">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Y24">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.5660377358490566</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA24">
-        <v>0.6060606060606061</v>
+        <v>0.625</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2437,55 +2455,55 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X25">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z25">
-        <v>0.6097560975609756</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA25">
-        <v>0.64</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -2499,70 +2517,58 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>114</v>
-      </c>
-      <c r="R26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S26" t="s">
-        <v>122</v>
-      </c>
-      <c r="T26" t="s">
-        <v>125</v>
-      </c>
-      <c r="U26" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
       </c>
       <c r="X26">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0.4285714285714285</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA26">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="AB26">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2573,61 +2579,70 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
-      </c>
-      <c r="P27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" t="s">
+        <v>124</v>
+      </c>
+      <c r="T27" t="s">
+        <v>127</v>
+      </c>
+      <c r="U27" t="s">
+        <v>130</v>
       </c>
       <c r="X27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z27">
-        <v>0.5555555555555556</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2638,70 +2653,61 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H28">
         <v>15</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="P28" t="s">
+        <v>115</v>
       </c>
       <c r="Q28" t="s">
-        <v>114</v>
-      </c>
-      <c r="R28" t="s">
-        <v>120</v>
-      </c>
-      <c r="S28" t="s">
-        <v>122</v>
-      </c>
-      <c r="T28" t="s">
-        <v>123</v>
-      </c>
-      <c r="U28" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="X28">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y28">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.4716981132075472</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA28">
-        <v>0.8928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2712,70 +2718,70 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
         <v>15</v>
       </c>
-      <c r="H29">
-        <v>12</v>
-      </c>
       <c r="I29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="X29">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z29">
-        <v>0.5714285714285714</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA29">
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB29">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -2788,11 +2794,8 @@
       <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2801,64 +2804,58 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M30" t="s">
         <v>95</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O30" t="s">
         <v>112</v>
       </c>
-      <c r="P30" t="s">
-        <v>113</v>
-      </c>
       <c r="Q30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="T30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U30" t="s">
-        <v>127</v>
-      </c>
-      <c r="V30" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="X30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y30">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA30">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="AB30">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2871,59 +2868,77 @@
       <c r="C31" t="s">
         <v>56</v>
       </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="R31" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" t="s">
+        <v>124</v>
+      </c>
+      <c r="T31" t="s">
+        <v>126</v>
+      </c>
+      <c r="U31" t="s">
+        <v>129</v>
+      </c>
+      <c r="V31" t="s">
+        <v>116</v>
       </c>
       <c r="X31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y31">
-        <v>1.071428571428571</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z31">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA31">
-        <v>0.8571428571428571</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -2934,55 +2949,58 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32">
         <v>10</v>
       </c>
-      <c r="H32">
-        <v>8</v>
-      </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>115</v>
       </c>
       <c r="X32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y32">
-        <v>0.8333333333333334</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z32">
-        <v>0.4545454545454545</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA32">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -2996,13 +3014,10 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3011,10 +3026,10 @@
         <v>10</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3023,28 +3038,31 @@
         <v>10</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N33" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O33" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="P33" t="s">
+        <v>115</v>
       </c>
       <c r="X33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y33">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z33">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA33">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -3058,55 +3076,55 @@
         <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" t="s">
-        <v>109</v>
-      </c>
-      <c r="P34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y34">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z34">
-        <v>0.3125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -3120,55 +3138,55 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
         <v>6</v>
       </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y35">
+        <v>0.625</v>
+      </c>
+      <c r="Z35">
+        <v>0.3125</v>
+      </c>
+      <c r="AA35">
         <v>1</v>
-      </c>
-      <c r="Z35">
-        <v>0.4</v>
-      </c>
-      <c r="AA35">
-        <v>1.5</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -3182,22 +3200,19 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3206,31 +3221,34 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M36" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O36" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="P36" t="s">
+        <v>115</v>
       </c>
       <c r="X36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA36">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -3244,22 +3262,22 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3268,31 +3286,31 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N37" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -3306,23 +3324,23 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38">
         <v>0</v>
       </c>
@@ -3330,22 +3348,22 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -3357,6 +3375,68 @@
         <v>2</v>
       </c>
       <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N39" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -106,9 +106,15 @@
     <t>GreatChick</t>
   </si>
   <si>
+    <t>Hulk</t>
+  </si>
+  <si>
     <t>Hunteress</t>
   </si>
   <si>
+    <t>GhostMinion</t>
+  </si>
+  <si>
     <t>NecroMorph</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>Hunter</t>
   </si>
   <si>
+    <t>GhostFace</t>
+  </si>
+  <si>
     <t>Sheep</t>
   </si>
   <si>
@@ -250,12 +259,12 @@
     <t>GOLD_ITEM_TYPE.GoldSphere</t>
   </si>
   <si>
+    <t>GOLD_ITEM_TYPE.SilverBar</t>
+  </si>
+  <si>
     <t>GOLD_ITEM_TYPE.GoldBar</t>
   </si>
   <si>
-    <t>GOLD_ITEM_TYPE.SilverBar</t>
-  </si>
-  <si>
     <t>KEY_TYPE.Pearl</t>
   </si>
   <si>
@@ -271,27 +280,27 @@
     <t>HumanAttack1</t>
   </si>
   <si>
+    <t>FemaleAttack1</t>
+  </si>
+  <si>
     <t>MonsterAttack2</t>
   </si>
   <si>
     <t>BirdScreech</t>
   </si>
   <si>
+    <t>FemaleAttack2</t>
+  </si>
+  <si>
     <t>DragonRoar</t>
   </si>
   <si>
+    <t>FemaleAttack3</t>
+  </si>
+  <si>
     <t>Banshee</t>
   </si>
   <si>
-    <t>FemaleAttack3</t>
-  </si>
-  <si>
-    <t>FemaleAttack2</t>
-  </si>
-  <si>
-    <t>FemaleAttack1</t>
-  </si>
-  <si>
     <t>BatAttack</t>
   </si>
   <si>
@@ -301,12 +310,12 @@
     <t>PainSqueek</t>
   </si>
   <si>
+    <t>MonsterHurt2</t>
+  </si>
+  <si>
     <t>Ow</t>
   </si>
   <si>
-    <t>MonsterHurt2</t>
-  </si>
-  <si>
     <t>MonsterHurt</t>
   </si>
   <si>
@@ -325,12 +334,12 @@
     <t>1.2</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
     <t>MATERIAL.standard</t>
   </si>
   <si>
+    <t>MATERIAL.greenShine</t>
+  </si>
+  <si>
     <t>MATERIAL.standardShine</t>
   </si>
   <si>
@@ -370,6 +382,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -380,9 +395,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>17</t>
@@ -764,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,10 +873,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -885,19 +897,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -923,10 +935,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -947,19 +959,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -985,10 +997,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1009,19 +1021,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1047,70 +1059,58 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" t="s">
-        <v>117</v>
-      </c>
-      <c r="S5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" t="s">
-        <v>125</v>
-      </c>
-      <c r="U5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="X5">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Y5">
-        <v>1.76056338028169</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="Z5">
-        <v>1.168224299065421</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AA5">
-        <v>0.5070422535211268</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AB5">
-        <v>352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1121,22 +1121,22 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1145,46 +1145,46 @@
         <v>250</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="T6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X6">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Y6">
-        <v>1.851851851851852</v>
+        <v>1.76056338028169</v>
       </c>
       <c r="Z6">
-        <v>1.219512195121951</v>
+        <v>1.168224299065421</v>
       </c>
       <c r="AA6">
-        <v>0.5185185185185185</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="AB6">
-        <v>455</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1195,58 +1195,73 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" t="s">
+        <v>132</v>
       </c>
       <c r="X7">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="Z7">
-        <v>0.4545454545454545</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="AA7">
-        <v>0.1</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1257,55 +1272,70 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
         <v>70</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>65</v>
-      </c>
       <c r="H8">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="R8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" t="s">
+        <v>132</v>
       </c>
       <c r="X8">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="Y8">
-        <v>1.804123711340206</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="Z8">
-        <v>1.080246913580247</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="AA8">
-        <v>0.6701030927835051</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1316,52 +1346,55 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s">
         <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="P9" t="s">
+        <v>119</v>
       </c>
       <c r="X9">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Y9">
-        <v>1.842105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="Z9">
-        <v>1.09375</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA9">
-        <v>0.6842105263157895</v>
+        <v>0.1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1375,76 +1408,55 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
       <c r="F10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>65</v>
       </c>
       <c r="H10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" t="s">
-        <v>120</v>
-      </c>
-      <c r="T10" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" t="s">
-        <v>129</v>
-      </c>
-      <c r="X10">
-        <v>122</v>
-      </c>
       <c r="Y10">
-        <v>1.639344262295082</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="Z10">
-        <v>1.06951871657754</v>
+        <v>1.080246913580247</v>
       </c>
       <c r="AA10">
-        <v>0.5327868852459017</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="AB10">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1455,16 +1467,16 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1473,34 +1485,34 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y11">
-        <v>1.666666666666667</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>1.09375</v>
       </c>
       <c r="AA11">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1516,68 +1528,74 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" t="s">
         <v>130</v>
       </c>
-      <c r="L12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>116</v>
-      </c>
-      <c r="R12" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" t="s">
-        <v>124</v>
-      </c>
-      <c r="T12" t="s">
-        <v>125</v>
-      </c>
       <c r="U12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="X12">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Y12">
-        <v>1.3</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Z12">
-        <v>0.8666666666666667</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="AA12">
-        <v>0.5</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="AB12">
-        <v>338</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1590,68 +1608,53 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
       <c r="F13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q13" t="s">
-        <v>116</v>
-      </c>
-      <c r="R13" t="s">
-        <v>120</v>
-      </c>
-      <c r="S13" t="s">
-        <v>124</v>
-      </c>
-      <c r="T13" t="s">
-        <v>125</v>
-      </c>
-      <c r="U13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="X13">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y13">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z13">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB13">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1664,53 +1667,68 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
       <c r="F14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K14">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T14" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14">
         <v>100</v>
       </c>
-      <c r="L14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" t="s">
-        <v>115</v>
-      </c>
-      <c r="X14">
-        <v>80</v>
-      </c>
       <c r="Y14">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z14">
-        <v>0.7692307692307693</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA14">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1721,76 +1739,70 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
         <v>87</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="T15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="X15">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z15">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA15">
         <v>0.5</v>
       </c>
       <c r="AB15">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1798,28 +1810,22 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>20</v>
@@ -1828,52 +1834,34 @@
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>116</v>
-      </c>
-      <c r="R16" t="s">
-        <v>118</v>
-      </c>
-      <c r="S16" t="s">
-        <v>120</v>
-      </c>
-      <c r="T16" t="s">
-        <v>126</v>
-      </c>
-      <c r="U16" t="s">
-        <v>129</v>
-      </c>
-      <c r="W16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z16">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB16">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1884,61 +1872,64 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <v>50</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="U17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="X17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1950,7 +1941,7 @@
         <v>0.5</v>
       </c>
       <c r="AB17">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1958,13 +1949,19 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1976,55 +1973,58 @@
         <v>30</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="U18" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="W18" t="s">
+        <v>120</v>
       </c>
       <c r="X18">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA18">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB18">
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2038,70 +2038,70 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="S19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="T19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X19">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Y19">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA19">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AB19">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2109,61 +2109,73 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s">
         <v>98</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" t="s">
+        <v>128</v>
+      </c>
+      <c r="T20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" t="s">
+        <v>132</v>
       </c>
       <c r="X20">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Y20">
-        <v>1.090909090909091</v>
+        <v>1.25</v>
       </c>
       <c r="Z20">
-        <v>0.631578947368421</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA20">
-        <v>0.7272727272727273</v>
+        <v>0.625</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2174,73 +2186,73 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
         <v>8</v>
       </c>
-      <c r="G21">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>40</v>
-      </c>
-      <c r="I21">
-        <v>15</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
       <c r="K21">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s">
         <v>99</v>
       </c>
       <c r="N21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="S21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="T21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X21">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Y21">
-        <v>0.9836065573770492</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z21">
-        <v>0.625</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA21">
-        <v>0.5737704918032787</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB21">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2248,58 +2260,58 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X22">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Y22">
-        <v>1.063829787234043</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z22">
-        <v>0.6493506493506493</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA22">
-        <v>0.6382978723404256</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -2313,79 +2325,73 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23">
         <v>6</v>
       </c>
-      <c r="G23">
-        <v>30</v>
-      </c>
-      <c r="H23">
-        <v>35</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
       <c r="K23">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U23" t="s">
-        <v>129</v>
-      </c>
-      <c r="V23" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="X23">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z23">
         <v>0.625</v>
       </c>
       <c r="AA23">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB23">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2398,50 +2404,53 @@
       <c r="C24" t="s">
         <v>49</v>
       </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X24">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z24">
-        <v>0.6153846153846154</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA24">
-        <v>0.625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2455,58 +2464,79 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" t="s">
+        <v>125</v>
+      </c>
+      <c r="S25" t="s">
+        <v>128</v>
+      </c>
+      <c r="T25" t="s">
+        <v>130</v>
+      </c>
+      <c r="U25" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" t="s">
+        <v>120</v>
       </c>
       <c r="X25">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Y25">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.5660377358490566</v>
+        <v>0.625</v>
       </c>
       <c r="AA25">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2519,53 +2549,50 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X26">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>0.6097560975609756</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA26">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -2579,70 +2606,58 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K27">
         <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M27" t="s">
         <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" t="s">
-        <v>124</v>
-      </c>
-      <c r="T27" t="s">
-        <v>127</v>
-      </c>
-      <c r="U27" t="s">
-        <v>130</v>
+        <v>114</v>
+      </c>
+      <c r="P27" t="s">
+        <v>119</v>
       </c>
       <c r="X27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Y27">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z27">
-        <v>0.4285714285714285</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA27">
-        <v>0.75</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB27">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2653,10 +2668,10 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2665,46 +2680,43 @@
         <v>16</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P28" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.5555555555555556</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2718,70 +2730,70 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R29" t="s">
         <v>122</v>
       </c>
       <c r="S29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T29" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="U29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="X29">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y29">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Z29">
-        <v>0.4716981132075472</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA29">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="AB29">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -2792,55 +2804,46 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
         <v>15</v>
       </c>
-      <c r="H30">
-        <v>12</v>
-      </c>
       <c r="I30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30">
         <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M30" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O30" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="P30" t="s">
+        <v>119</v>
       </c>
       <c r="Q30" t="s">
-        <v>116</v>
-      </c>
-      <c r="R30" t="s">
-        <v>121</v>
-      </c>
-      <c r="S30" t="s">
-        <v>124</v>
-      </c>
-      <c r="T30" t="s">
-        <v>125</v>
-      </c>
-      <c r="U30" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="X30">
         <v>20</v>
@@ -2849,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA30">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2866,79 +2869,70 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
         <v>79</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
         <v>15</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>10</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M31" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
-      </c>
-      <c r="P31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R31" t="s">
         <v>122</v>
       </c>
       <c r="S31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="T31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>129</v>
-      </c>
-      <c r="V31" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="X31">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y31">
-        <v>1.052631578947368</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z31">
-        <v>0.5882352941176471</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA31">
-        <v>0.7894736842105263</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB31">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -2952,58 +2946,67 @@
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
         <v>12</v>
       </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
       <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
       <c r="K32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q32" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="R32" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" t="s">
+        <v>128</v>
+      </c>
+      <c r="T32" t="s">
+        <v>129</v>
+      </c>
+      <c r="U32" t="s">
+        <v>132</v>
       </c>
       <c r="X32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y32">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA32">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3014,58 +3017,79 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
         <v>10</v>
       </c>
-      <c r="H33">
-        <v>8</v>
-      </c>
       <c r="I33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" t="s">
+        <v>122</v>
+      </c>
+      <c r="S33" t="s">
+        <v>128</v>
+      </c>
+      <c r="T33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U33" t="s">
+        <v>133</v>
+      </c>
+      <c r="V33" t="s">
+        <v>120</v>
       </c>
       <c r="X33">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y33">
-        <v>0.8333333333333334</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z33">
-        <v>0.4545454545454545</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA33">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3078,53 +3102,56 @@
       <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
         <v>10</v>
       </c>
-      <c r="H34">
-        <v>7</v>
-      </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="P34" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>119</v>
       </c>
       <c r="X34">
         <v>14</v>
       </c>
       <c r="Y34">
-        <v>0.7142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z34">
-        <v>0.4166666666666667</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA34">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -3138,55 +3165,55 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
         <v>8</v>
       </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y35">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z35">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -3202,53 +3229,53 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O36" t="s">
-        <v>111</v>
-      </c>
-      <c r="P36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X36">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA36">
-        <v>1.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -3262,55 +3289,55 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
         <v>5</v>
       </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
       <c r="L37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M37" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O37" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="P37" t="s">
+        <v>119</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y37">
+        <v>0.625</v>
+      </c>
+      <c r="Z37">
+        <v>0.3125</v>
+      </c>
+      <c r="AA37">
         <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>0.375</v>
-      </c>
-      <c r="AA37">
-        <v>1.666666666666667</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -3324,23 +3351,20 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
         <v>4</v>
       </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
       <c r="I38">
         <v>0</v>
       </c>
@@ -3348,31 +3372,34 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O38" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="P38" t="s">
+        <v>119</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="AA38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -3386,22 +3413,22 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3410,33 +3437,157 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N39" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39">
+        <v>0.375</v>
+      </c>
+      <c r="AA39">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40" t="s">
+        <v>114</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA39">
+      <c r="AA40">
         <v>2</v>
       </c>
-      <c r="AB39">
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" t="s">
+        <v>114</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,12 @@
     <t>Hunteress</t>
   </si>
   <si>
+    <t>Drax</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
     <t>GhostMinion</t>
   </si>
   <si>
@@ -380,6 +386,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>7</t>
@@ -776,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,10 +882,10 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -897,19 +906,19 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X2">
         <v>150</v>
@@ -935,10 +944,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -959,19 +968,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -997,10 +1006,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1021,19 +1030,19 @@
         <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X4">
         <v>125</v>
@@ -1062,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1083,19 +1092,19 @@
         <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X5">
         <v>145</v>
@@ -1121,10 +1130,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -1145,31 +1154,31 @@
         <v>250</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="T6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X6">
         <v>142</v>
@@ -1195,73 +1204,70 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X7">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Y7">
-        <v>1.612903225806452</v>
+        <v>1.589595375722543</v>
       </c>
       <c r="Z7">
-        <v>1.08695652173913</v>
+        <v>0.9717314487632509</v>
       </c>
       <c r="AA7">
-        <v>0.4838709677419355</v>
+        <v>0.6358381502890174</v>
       </c>
       <c r="AB7">
-        <v>350</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1275,67 +1281,67 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>250</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
         <v>116</v>
       </c>
       <c r="Q8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X8">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="Y8">
-        <v>1.851851851851852</v>
+        <v>1.54320987654321</v>
       </c>
       <c r="Z8">
-        <v>1.219512195121951</v>
+        <v>0.9541984732824428</v>
       </c>
       <c r="AA8">
-        <v>0.5185185185185185</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="AB8">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1346,58 +1352,70 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" t="s">
+        <v>135</v>
       </c>
       <c r="X9">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="Y9">
-        <v>0.5</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="Z9">
-        <v>0.4545454545454545</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="AA9">
-        <v>0.1</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1408,55 +1426,70 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="L10" t="s">
         <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="R10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T10" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" t="s">
+        <v>135</v>
       </c>
       <c r="X10">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="Y10">
-        <v>1.804123711340206</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="Z10">
-        <v>1.080246913580247</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="AA10">
-        <v>0.6701030927835051</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1467,52 +1500,55 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="P11" t="s">
+        <v>121</v>
       </c>
       <c r="X11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Y11">
-        <v>1.842105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="Z11">
-        <v>1.09375</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA11">
-        <v>0.6842105263157895</v>
+        <v>0.1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1526,76 +1562,55 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>65</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M12" t="s">
         <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q12" t="s">
-        <v>120</v>
-      </c>
-      <c r="R12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" t="s">
-        <v>125</v>
-      </c>
-      <c r="T12" t="s">
-        <v>130</v>
-      </c>
-      <c r="U12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="X12">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="Y12">
-        <v>1.639344262295082</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="Z12">
-        <v>1.06951871657754</v>
+        <v>1.080246913580247</v>
       </c>
       <c r="AA12">
-        <v>0.5327868852459017</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="AB12">
-        <v>416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1606,16 +1621,16 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1624,34 +1639,34 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X13">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y13">
-        <v>1.666666666666667</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.09375</v>
       </c>
       <c r="AA13">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -1667,6 +1682,9 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" t="s">
         <v>82</v>
       </c>
@@ -1674,61 +1692,64 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
       </c>
       <c r="Q14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S14" t="s">
         <v>128</v>
       </c>
       <c r="T14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="X14">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Y14">
-        <v>1.3</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Z14">
-        <v>0.8666666666666667</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="AA14">
-        <v>0.5</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="AB14">
-        <v>338</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1741,68 +1762,53 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
       <c r="F15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q15" t="s">
-        <v>120</v>
-      </c>
-      <c r="R15" t="s">
-        <v>125</v>
-      </c>
-      <c r="S15" t="s">
-        <v>128</v>
-      </c>
-      <c r="T15" t="s">
-        <v>129</v>
-      </c>
-      <c r="U15" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="X15">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y15">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z15">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB15">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1815,53 +1821,68 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
       <c r="F16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>50</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M16" t="s">
         <v>101</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16" t="s">
+        <v>127</v>
+      </c>
+      <c r="S16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T16" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" t="s">
+        <v>135</v>
       </c>
       <c r="X16">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y16">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z16">
-        <v>0.7692307692307693</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA16">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1872,76 +1893,70 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I17">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
         <v>118</v>
       </c>
-      <c r="P17" t="s">
-        <v>119</v>
-      </c>
       <c r="Q17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="T17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="X17">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z17">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA17">
         <v>0.5</v>
       </c>
       <c r="AB17">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1949,28 +1964,22 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>20</v>
@@ -1979,52 +1988,34 @@
         <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s">
         <v>118</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" t="s">
-        <v>123</v>
-      </c>
-      <c r="S18" t="s">
-        <v>125</v>
-      </c>
-      <c r="T18" t="s">
-        <v>130</v>
-      </c>
-      <c r="U18" t="s">
-        <v>133</v>
-      </c>
-      <c r="W18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z18">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA18">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AB18">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2035,61 +2026,64 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>50</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S19" t="s">
         <v>128</v>
       </c>
       <c r="T19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="X19">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -2101,7 +2095,7 @@
         <v>0.5</v>
       </c>
       <c r="AB19">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2109,13 +2103,19 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>50</v>
@@ -2127,28 +2127,28 @@
         <v>30</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R20" t="s">
         <v>126</v>
@@ -2157,25 +2157,28 @@
         <v>128</v>
       </c>
       <c r="T20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U20" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="W20" t="s">
+        <v>122</v>
       </c>
       <c r="X20">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA20">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB20">
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2189,70 +2192,70 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K21">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O21" t="s">
         <v>116</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="T21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X21">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Y21">
-        <v>1.027397260273973</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.6637168141592921</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA21">
-        <v>0.547945205479452</v>
+        <v>0.5</v>
       </c>
       <c r="AB21">
-        <v>200</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2260,61 +2263,73 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>122</v>
+      </c>
+      <c r="R22" t="s">
+        <v>129</v>
+      </c>
+      <c r="S22" t="s">
+        <v>131</v>
+      </c>
+      <c r="T22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U22" t="s">
+        <v>135</v>
       </c>
       <c r="X22">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Y22">
-        <v>1.090909090909091</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>0.631578947368421</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA22">
-        <v>0.7272727272727273</v>
+        <v>0.625</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2325,73 +2340,73 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
         <v>75</v>
       </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>35</v>
-      </c>
-      <c r="H23">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>15</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23">
-        <v>60</v>
-      </c>
       <c r="L23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="S23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X23">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Y23">
-        <v>0.9836065573770492</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z23">
-        <v>0.625</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA23">
-        <v>0.5737704918032787</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB23">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2399,58 +2414,58 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X24">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Y24">
-        <v>1.063829787234043</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z24">
-        <v>0.6493506493506493</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA24">
-        <v>0.6382978723404256</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2464,79 +2479,73 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>35</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
       <c r="K25">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O25" t="s">
         <v>118</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U25" t="s">
-        <v>133</v>
-      </c>
-      <c r="V25" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="X25">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z25">
         <v>0.625</v>
       </c>
       <c r="AA25">
-        <v>0.6</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB25">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2549,50 +2558,53 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X26">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z26">
-        <v>0.6153846153846154</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA26">
-        <v>0.625</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -2606,58 +2618,79 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N27" t="s">
         <v>108</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" t="s">
+        <v>128</v>
+      </c>
+      <c r="S27" t="s">
+        <v>131</v>
+      </c>
+      <c r="T27" t="s">
+        <v>133</v>
+      </c>
+      <c r="U27" t="s">
+        <v>136</v>
+      </c>
+      <c r="V27" t="s">
+        <v>122</v>
       </c>
       <c r="X27">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Y27">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.5660377358490566</v>
+        <v>0.625</v>
       </c>
       <c r="AA27">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2670,53 +2703,50 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M28" t="s">
         <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.6097560975609756</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA28">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2730,70 +2760,58 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K29">
         <v>30</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O29" t="s">
         <v>116</v>
       </c>
-      <c r="Q29" t="s">
-        <v>120</v>
-      </c>
-      <c r="R29" t="s">
-        <v>122</v>
-      </c>
-      <c r="S29" t="s">
-        <v>128</v>
-      </c>
-      <c r="T29" t="s">
-        <v>131</v>
-      </c>
-      <c r="U29" t="s">
-        <v>134</v>
+      <c r="P29" t="s">
+        <v>121</v>
       </c>
       <c r="X29">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Y29">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z29">
-        <v>0.4285714285714285</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA29">
-        <v>0.75</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB29">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -2804,10 +2822,10 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2816,46 +2834,43 @@
         <v>16</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N30" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O30" t="s">
         <v>116</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.5555555555555556</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -2869,70 +2884,70 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T31" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="U31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="X31">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Y31">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Z31">
-        <v>0.4716981132075472</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA31">
-        <v>0.8928571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="AB31">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -2943,55 +2958,46 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
         <v>15</v>
       </c>
-      <c r="H32">
-        <v>12</v>
-      </c>
       <c r="I32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32">
         <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="P32" t="s">
+        <v>121</v>
       </c>
       <c r="Q32" t="s">
-        <v>120</v>
-      </c>
-      <c r="R32" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" t="s">
-        <v>128</v>
-      </c>
-      <c r="T32" t="s">
-        <v>129</v>
-      </c>
-      <c r="U32" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="X32">
         <v>20</v>
@@ -3000,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="Z32">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA32">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3017,79 +3023,70 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
         <v>81</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
         <v>15</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>10</v>
-      </c>
-      <c r="I33">
-        <v>6</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M33" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="N33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O33" t="s">
         <v>118</v>
       </c>
-      <c r="P33" t="s">
-        <v>119</v>
-      </c>
       <c r="Q33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U33" t="s">
-        <v>133</v>
-      </c>
-      <c r="V33" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="X33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Y33">
-        <v>1.052631578947368</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Z33">
-        <v>0.5882352941176471</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="AA33">
-        <v>0.7894736842105263</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="AB33">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3103,58 +3100,67 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
         <v>12</v>
       </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
       <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
       <c r="K34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" t="s">
-        <v>116</v>
-      </c>
-      <c r="P34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q34" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="R34" t="s">
+        <v>129</v>
+      </c>
+      <c r="S34" t="s">
+        <v>131</v>
+      </c>
+      <c r="T34" t="s">
+        <v>132</v>
+      </c>
+      <c r="U34" t="s">
+        <v>135</v>
       </c>
       <c r="X34">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y34">
-        <v>1.071428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA34">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3165,58 +3171,79 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="H35">
-        <v>8</v>
-      </c>
       <c r="I35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>122</v>
+      </c>
+      <c r="R35" t="s">
+        <v>125</v>
+      </c>
+      <c r="S35" t="s">
+        <v>131</v>
+      </c>
+      <c r="T35" t="s">
+        <v>133</v>
+      </c>
+      <c r="U35" t="s">
+        <v>136</v>
+      </c>
+      <c r="V35" t="s">
+        <v>122</v>
       </c>
       <c r="X35">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y35">
-        <v>0.8333333333333334</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Z35">
-        <v>0.4545454545454545</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AA35">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3229,53 +3256,56 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
         <v>10</v>
       </c>
-      <c r="H36">
-        <v>7</v>
-      </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M36" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N36" t="s">
         <v>108</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="P36" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>121</v>
       </c>
       <c r="X36">
         <v>14</v>
       </c>
       <c r="Y36">
-        <v>0.7142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="Z36">
-        <v>0.4166666666666667</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AA36">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -3289,55 +3319,55 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
         <v>8</v>
       </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y37">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Z37">
-        <v>0.3125</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -3353,53 +3383,53 @@
       <c r="C38" t="s">
         <v>63</v>
       </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L38" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
-      </c>
-      <c r="P38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X38">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z38">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AA38">
-        <v>1.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -3413,55 +3443,55 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>5</v>
       </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M39" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="P39" t="s">
+        <v>121</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y39">
+        <v>0.625</v>
+      </c>
+      <c r="Z39">
+        <v>0.3125</v>
+      </c>
+      <c r="AA39">
         <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>0.375</v>
-      </c>
-      <c r="AA39">
-        <v>1.666666666666667</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -3475,23 +3505,20 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
         <v>4</v>
       </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -3499,31 +3526,34 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L40" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M40" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="N40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O40" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>121</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y40">
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -3537,22 +3567,22 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3561,33 +3591,157 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N41" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
         <v>1</v>
       </c>
       <c r="Z41">
+        <v>0.375</v>
+      </c>
+      <c r="AA41">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" t="s">
+        <v>108</v>
+      </c>
+      <c r="O42" t="s">
+        <v>116</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA41">
+      <c r="AA42">
         <v>2</v>
       </c>
-      <c r="AB41">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" t="s">
+        <v>108</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
         <v>0</v>
       </c>
     </row>

--- a/Code/Python/MonsterList.xlsx
+++ b/Code/Python/MonsterList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="158">
   <si>
     <t>name</t>
   </si>
@@ -97,24 +97,48 @@
     <t>MagicMight</t>
   </si>
   <si>
+    <t>GoldSkeleton</t>
+  </si>
+  <si>
     <t>GreatPig</t>
   </si>
   <si>
     <t>GreatCat</t>
   </si>
   <si>
+    <t>GreenSkeleton</t>
+  </si>
+  <si>
+    <t>BlueSkeleton</t>
+  </si>
+  <si>
+    <t>SilverSkeleton</t>
+  </si>
+  <si>
+    <t>RedSkeleton</t>
+  </si>
+  <si>
     <t>GreatChick</t>
   </si>
   <si>
     <t>Hulk</t>
   </si>
   <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
     <t>Hunteress</t>
   </si>
   <si>
     <t>Drax</t>
   </si>
   <si>
+    <t>MissGreen</t>
+  </si>
+  <si>
+    <t>MissWhite</t>
+  </si>
+  <si>
     <t>Rex</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>Bat</t>
   </si>
   <si>
+    <t>WhiteSkeleton</t>
+  </si>
+  <si>
     <t>Pig</t>
   </si>
   <si>
@@ -274,6 +301,9 @@
     <t>KEY_TYPE.Pearl</t>
   </si>
   <si>
+    <t>MonsterAttack2</t>
+  </si>
+  <si>
     <t>PigAttack</t>
   </si>
   <si>
@@ -289,9 +319,6 @@
     <t>FemaleAttack1</t>
   </si>
   <si>
-    <t>MonsterAttack2</t>
-  </si>
-  <si>
     <t>BirdScreech</t>
   </si>
   <si>
@@ -310,15 +337,15 @@
     <t>BatAttack</t>
   </si>
   <si>
+    <t>MonsterHurt2</t>
+  </si>
+  <si>
     <t>PigSqueal</t>
   </si>
   <si>
     <t>PainSqueek</t>
   </si>
   <si>
-    <t>MonsterHurt2</t>
-  </si>
-  <si>
     <t>Ow</t>
   </si>
   <si>
@@ -337,36 +364,54 @@
     <t>HurtScream</t>
   </si>
   <si>
+    <t>1.50</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>0.99</t>
   </si>
   <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>1.15</t>
   </si>
   <si>
     <t>1.05</t>
   </si>
   <si>
+    <t>MATERIAL.gold</t>
+  </si>
+  <si>
     <t>MATERIAL.standard</t>
   </si>
   <si>
+    <t>MATERIAL.silver</t>
+  </si>
+  <si>
+    <t>MATERIAL.redShine</t>
+  </si>
+  <si>
     <t>MATERIAL.greenShine</t>
   </si>
   <si>
@@ -376,27 +421,42 @@
     <t>MATERIAL.greenFluence</t>
   </si>
   <si>
-    <t>MATERIAL.gold</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -406,7 +466,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>17</t>
+    <t>3</t>
   </si>
   <si>
     <t>6</t>
@@ -785,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,58 +942,67 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="H2">
         <v>150</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>155</v>
       </c>
       <c r="X2">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="Y2">
-        <v>0.5</v>
+        <v>1.63265306122449</v>
       </c>
       <c r="Z2">
-        <v>0.46875</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="AA2">
-        <v>0.06666666666666667</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -944,10 +1013,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -968,19 +1037,19 @@
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="X3">
         <v>150</v>
@@ -1006,10 +1075,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1018,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1027,34 +1096,34 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="X4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="Y4">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="Z4">
-        <v>0.4814814814814815</v>
+        <v>0.46875</v>
       </c>
       <c r="AA4">
-        <v>0.08</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1068,58 +1137,67 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+      <c r="H5">
+        <v>140</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>120</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
-      </c>
       <c r="K5">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Q5" t="s">
-        <v>121</v>
+        <v>136</v>
+      </c>
+      <c r="R5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" t="s">
+        <v>152</v>
+      </c>
+      <c r="U5" t="s">
+        <v>155</v>
       </c>
       <c r="X5">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="Y5">
-        <v>1.724137931034483</v>
+        <v>1.688888888888889</v>
       </c>
       <c r="Z5">
-        <v>1.111111111111111</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="AA5">
-        <v>0.5517241379310345</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1130,70 +1208,67 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="S6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="T6" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="X6">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="Y6">
-        <v>1.76056338028169</v>
+        <v>1.674418604651163</v>
       </c>
       <c r="Z6">
-        <v>1.168224299065421</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="AA6">
-        <v>0.5070422535211268</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="AB6">
-        <v>352</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1204,70 +1279,67 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H7">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="S7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="X7">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="Y7">
-        <v>1.589595375722543</v>
+        <v>1.658536585365854</v>
       </c>
       <c r="Z7">
-        <v>0.9717314487632509</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="AA7">
-        <v>0.6358381502890174</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="AB7">
-        <v>480</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1278,70 +1350,67 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I8">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="Q8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R8" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="S8" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="T8" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="X8">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Y8">
-        <v>1.54320987654321</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z8">
-        <v>0.9541984732824428</v>
+        <v>0.9937888198757764</v>
       </c>
       <c r="AA8">
-        <v>0.6172839506172839</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="AB8">
-        <v>407</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1352,70 +1421,58 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="G9">
-        <v>75</v>
-      </c>
       <c r="H9">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I9">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>122</v>
-      </c>
-      <c r="R9" t="s">
+        <v>129</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9">
         <v>125</v>
       </c>
-      <c r="S9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T9" t="s">
-        <v>132</v>
-      </c>
-      <c r="U9" t="s">
-        <v>135</v>
-      </c>
-      <c r="X9">
-        <v>155</v>
-      </c>
       <c r="Y9">
-        <v>1.612903225806452</v>
+        <v>0.52</v>
       </c>
       <c r="Z9">
-        <v>1.08695652173913</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="AA9">
-        <v>0.4838709677419355</v>
+        <v>0.08</v>
       </c>
       <c r="AB9">
-        <v>350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1429,67 +1486,55 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>250</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T10" t="s">
-        <v>132</v>
-      </c>
-      <c r="U10" t="s">
         <v>135</v>
       </c>
       <c r="X10">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y10">
-        <v>1.851851851851852</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="Z10">
-        <v>1.219512195121951</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="AA10">
-        <v>0.5185185185185185</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="AB10">
-        <v>455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1497,61 +1542,70 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
       <c r="F11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>142</v>
+      </c>
+      <c r="S11" t="s">
+        <v>149</v>
+      </c>
+      <c r="T11" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" t="s">
+        <v>155</v>
       </c>
       <c r="X11">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="Y11">
-        <v>0.5</v>
+        <v>1.648351648351648</v>
       </c>
       <c r="Z11">
-        <v>0.4545454545454545</v>
+        <v>0.9933774834437086</v>
       </c>
       <c r="AA11">
-        <v>0.1</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1562,55 +1616,70 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="Q12" t="s">
-        <v>121</v>
+        <v>136</v>
+      </c>
+      <c r="R12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" t="s">
+        <v>155</v>
       </c>
       <c r="X12">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="Y12">
-        <v>1.804123711340206</v>
+        <v>1.76056338028169</v>
       </c>
       <c r="Z12">
-        <v>1.080246913580247</v>
+        <v>1.168224299065421</v>
       </c>
       <c r="AA12">
-        <v>0.6701030927835051</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1621,55 +1690,70 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13">
         <v>40</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>65</v>
-      </c>
-      <c r="H13">
-        <v>75</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q13" t="s">
-        <v>121</v>
+        <v>136</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T13" t="s">
+        <v>152</v>
+      </c>
+      <c r="U13" t="s">
+        <v>155</v>
       </c>
       <c r="X13">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="Y13">
-        <v>1.842105263157895</v>
+        <v>1.589595375722543</v>
       </c>
       <c r="Z13">
-        <v>1.09375</v>
+        <v>0.9717314487632509</v>
       </c>
       <c r="AA13">
-        <v>0.6842105263157895</v>
+        <v>0.6358381502890174</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1680,76 +1764,70 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q14" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="S14" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="T14" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="U14" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="X14">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="Y14">
-        <v>1.639344262295082</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="Z14">
-        <v>1.06951871657754</v>
+        <v>1.016949152542373</v>
       </c>
       <c r="AA14">
-        <v>0.5327868852459017</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="AB14">
-        <v>416</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1763,52 +1841,64 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" t="s">
+        <v>145</v>
+      </c>
+      <c r="S15" t="s">
         <v>150</v>
       </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>121</v>
+      <c r="T15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U15" t="s">
+        <v>155</v>
       </c>
       <c r="X15">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Y15">
         <v>1.666666666666667</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AA15">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1822,67 +1912,67 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q16" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R16" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="S16" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="T16" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U16" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="X16">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="Y16">
-        <v>1.3</v>
+        <v>1.54320987654321</v>
       </c>
       <c r="Z16">
-        <v>0.8666666666666667</v>
+        <v>0.9541984732824428</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="AB16">
-        <v>338</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1893,70 +1983,70 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K17">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q17" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R17" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="S17" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="T17" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="X17">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="Y17">
-        <v>1.25</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="Z17">
-        <v>0.8333333333333334</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="AA17">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="AB17">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1969,53 +2059,68 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
       <c r="F18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" t="s">
+        <v>152</v>
+      </c>
+      <c r="U18" t="s">
+        <v>155</v>
       </c>
       <c r="X18">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="Y18">
-        <v>1.25</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="Z18">
-        <v>0.7692307692307693</v>
+        <v>1.219512195121951</v>
       </c>
       <c r="AA18">
-        <v>0.625</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2026,76 +2131,58 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>50</v>
       </c>
-      <c r="H19">
-        <v>50</v>
-      </c>
-      <c r="I19">
-        <v>30</v>
-      </c>
-      <c r="J19">
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
       <c r="L19" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>122</v>
-      </c>
-      <c r="R19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S19" t="s">
-        <v>128</v>
-      </c>
-      <c r="T19" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X19">
         <v>100</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z19">
-        <v>0.6666666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AB19">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2103,82 +2190,58 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
-        <v>122</v>
-      </c>
-      <c r="R20" t="s">
-        <v>126</v>
-      </c>
-      <c r="S20" t="s">
-        <v>128</v>
-      </c>
-      <c r="T20" t="s">
-        <v>133</v>
-      </c>
-      <c r="U20" t="s">
-        <v>136</v>
-      </c>
-      <c r="W20" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="X20">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>1.804123711340206</v>
       </c>
       <c r="Z20">
-        <v>0.6666666666666666</v>
+        <v>1.080246913580247</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="AB20">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2189,73 +2252,55 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q21" t="s">
-        <v>122</v>
-      </c>
-      <c r="R21" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" t="s">
-        <v>132</v>
-      </c>
-      <c r="U21" t="s">
         <v>135</v>
       </c>
       <c r="X21">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="Z21">
-        <v>0.6666666666666666</v>
+        <v>1.09375</v>
       </c>
       <c r="AA21">
-        <v>0.5</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AB21">
-        <v>275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2268,68 +2313,74 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
       <c r="F22">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
+        <v>145</v>
+      </c>
+      <c r="S22" t="s">
+        <v>148</v>
+      </c>
+      <c r="T22" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" t="s">
+        <v>156</v>
+      </c>
+      <c r="X22">
         <v>122</v>
       </c>
-      <c r="R22" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" t="s">
-        <v>131</v>
-      </c>
-      <c r="T22" t="s">
-        <v>132</v>
-      </c>
-      <c r="U22" t="s">
-        <v>135</v>
-      </c>
-      <c r="X22">
-        <v>80</v>
-      </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Z22">
-        <v>0.7692307692307693</v>
+        <v>1.06951871657754</v>
       </c>
       <c r="AA22">
-        <v>0.625</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="AB22">
-        <v>150</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2342,71 +2393,53 @@
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
       <c r="F23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>20</v>
       </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
       <c r="K23">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s">
         <v>95</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Q23" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" t="s">
-        <v>128</v>
-      </c>
-      <c r="S23" t="s">
-        <v>129</v>
-      </c>
-      <c r="T23" t="s">
-        <v>132</v>
-      </c>
-      <c r="U23" t="s">
         <v>135</v>
       </c>
       <c r="X23">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="Y23">
-        <v>1.027397260273973</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z23">
-        <v>0.6637168141592921</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.547945205479452</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB23">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2414,61 +2447,73 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
-      </c>
-      <c r="P24" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>151</v>
+      </c>
+      <c r="T24" t="s">
+        <v>152</v>
+      </c>
+      <c r="U24" t="s">
+        <v>155</v>
       </c>
       <c r="X24">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="Y24">
-        <v>1.090909090909091</v>
+        <v>1.3</v>
       </c>
       <c r="Z24">
-        <v>0.631578947368421</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AA24">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2479,73 +2524,70 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I25">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>136</v>
+      </c>
+      <c r="R25" t="s">
+        <v>148</v>
+      </c>
+      <c r="S25" t="s">
+        <v>151</v>
+      </c>
+      <c r="T25" t="s">
+        <v>152</v>
+      </c>
+      <c r="U25" t="s">
+        <v>155</v>
+      </c>
+      <c r="X25">
         <v>96</v>
       </c>
-      <c r="M25" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>122</v>
-      </c>
-      <c r="R25" t="s">
-        <v>123</v>
-      </c>
-      <c r="S25" t="s">
-        <v>130</v>
-      </c>
-      <c r="T25" t="s">
-        <v>132</v>
-      </c>
-      <c r="U25" t="s">
-        <v>135</v>
-      </c>
-      <c r="X25">
-        <v>61</v>
-      </c>
       <c r="Y25">
-        <v>0.9836065573770492</v>
+        <v>1.25</v>
       </c>
       <c r="Z25">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA25">
-        <v>0.5737704918032787</v>
+        <v>0.5</v>
       </c>
       <c r="AB25">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2558,53 +2600,50 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="X26">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="Y26">
-        <v>1.063829787234043</v>
+        <v>1.25</v>
       </c>
       <c r="Z26">
-        <v>0.6493506493506493</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA26">
-        <v>0.6382978723404256</v>
+        <v>0.625</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -2618,79 +2657,76 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
         <v>30</v>
       </c>
-      <c r="H27">
-        <v>35</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
       <c r="J27">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="Q27" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R27" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="S27" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="T27" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="U27" t="s">
-        <v>136</v>
-      </c>
-      <c r="V27" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="X27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB27">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2698,58 +2734,82 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
         <v>30</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K28">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" t="s">
+        <v>145</v>
+      </c>
+      <c r="S28" t="s">
+        <v>148</v>
+      </c>
+      <c r="T28" t="s">
+        <v>153</v>
+      </c>
+      <c r="U28" t="s">
+        <v>156</v>
+      </c>
+      <c r="W28" t="s">
+        <v>136</v>
+      </c>
+      <c r="X28">
         <v>100</v>
-      </c>
-      <c r="N28" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" t="s">
-        <v>121</v>
-      </c>
-      <c r="X28">
-        <v>40</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA28">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2760,58 +2820,73 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
         <v>25</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K29">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N29" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>136</v>
+      </c>
+      <c r="R29" t="s">
+        <v>148</v>
+      </c>
+      <c r="S29" t="s">
+        <v>151</v>
+      </c>
+      <c r="T29" t="s">
+        <v>152</v>
+      </c>
+      <c r="U29" t="s">
+        <v>155</v>
       </c>
       <c r="X29">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="Y29">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0.5660377358490566</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AA29">
-        <v>0.6060606060606061</v>
+        <v>0.5</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -2824,56 +2899,68 @@
       <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="E30" t="s">
-        <v>81</v>
-      </c>
       <c r="F30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O30" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" t="s">
+        <v>149</v>
+      </c>
+      <c r="S30" t="s">
+        <v>151</v>
+      </c>
+      <c r="T30" t="s">
+        <v>152</v>
+      </c>
+      <c r="U30" t="s">
+        <v>155</v>
       </c>
       <c r="X30">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z30">
-        <v>0.6097560975609756</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="AA30">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2884,67 +2971,70 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I31">
         <v>20</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K31">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="O31" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="P31" t="s">
+        <v>135</v>
       </c>
       <c r="Q31" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R31" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="S31" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="T31" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="U31" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="X31">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="Y31">
-        <v>0.75</v>
+        <v>1.027397260273973</v>
       </c>
       <c r="Z31">
-        <v>0.4285714285714285</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="AA31">
-        <v>0.75</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="AB31">
         <v>200</v>
@@ -2955,61 +3045,58 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H32">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>15</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
       <c r="K32">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="N32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O32" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="X32">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>1.090909090909091</v>
       </c>
       <c r="Z32">
-        <v>0.5555555555555556</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -3023,70 +3110,73 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
         <v>15</v>
       </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
       <c r="J33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="P33" t="s">
+        <v>135</v>
       </c>
       <c r="Q33" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R33" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="S33" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="T33" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="U33" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="X33">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="Y33">
-        <v>0.8928571428571429</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="Z33">
-        <v>0.4716981132075472</v>
+        <v>0.625</v>
       </c>
       <c r="AA33">
-        <v>0.8928571428571429</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="AB33">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3100,67 +3190,55 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34">
+        <v>35</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>12</v>
       </c>
-      <c r="I34">
-        <v>7</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
       <c r="K34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O34" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>122</v>
-      </c>
-      <c r="R34" t="s">
         <v>129</v>
       </c>
-      <c r="S34" t="s">
-        <v>131</v>
-      </c>
-      <c r="T34" t="s">
-        <v>132</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="P34" t="s">
         <v>135</v>
       </c>
       <c r="X34">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="Z34">
-        <v>0.5714285714285714</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="AA34">
-        <v>0.75</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="AB34">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3171,79 +3249,79 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" t="s">
+        <v>111</v>
+      </c>
+      <c r="N35" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" t="s">
+        <v>148</v>
+      </c>
+      <c r="S35" t="s">
+        <v>151</v>
+      </c>
+      <c r="T35" t="s">
+        <v>153</v>
+      </c>
+      <c r="U35" t="s">
+        <v>156</v>
+      </c>
+      <c r="V35" t="s">
+        <v>136</v>
+      </c>
+      <c r="X35">
+        <v>50</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>0.625</v>
+      </c>
+      <c r="AA35">
+        <v>0.6</v>
+      </c>
+      <c r="AB35">
         <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>15</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" t="s">
-        <v>102</v>
-      </c>
-      <c r="N35" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" t="s">
-        <v>120</v>
-      </c>
-      <c r="P35" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>122</v>
-      </c>
-      <c r="R35" t="s">
-        <v>125</v>
-      </c>
-      <c r="S35" t="s">
-        <v>131</v>
-      </c>
-      <c r="T35" t="s">
-        <v>133</v>
-      </c>
-      <c r="U35" t="s">
-        <v>136</v>
-      </c>
-      <c r="V35" t="s">
-        <v>122</v>
-      </c>
-      <c r="X35">
-        <v>19</v>
-      </c>
-      <c r="Y35">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="Z35">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="AA35">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="AB35">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3256,56 +3334,50 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>10</v>
       </c>
-      <c r="I36">
+      <c r="K36">
+        <v>40</v>
+      </c>
+      <c r="L36" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" t="s">
+        <v>107</v>
+      </c>
+      <c r="N36" t="s">
+        <v>121</v>
+      </c>
+      <c r="O36" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" t="s">
+        <v>135</v>
+      </c>
+      <c r="X36">
+        <v>40</v>
+      </c>
+      <c r="Y36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <v>15</v>
-      </c>
-      <c r="L36" t="s">
-        <v>90</v>
-      </c>
-      <c r="M36" t="s">
-        <v>106</v>
-      </c>
-      <c r="N36" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" t="s">
-        <v>118</v>
-      </c>
-      <c r="P36" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>121</v>
-      </c>
-      <c r="X36">
-        <v>14</v>
-      </c>
-      <c r="Y36">
-        <v>1.071428571428571</v>
-      </c>
       <c r="Z36">
-        <v>0.5769230769230769</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AA36">
-        <v>0.8571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -3319,55 +3391,55 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>8</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
       <c r="K37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P37" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="X37">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Y37">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Z37">
-        <v>0.4545454545454545</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="AA37">
-        <v>0.8333333333333334</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -3383,53 +3455,53 @@
       <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="D38" t="s">
-        <v>80</v>
-      </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
       <c r="K38">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="O38" t="s">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
       </c>
       <c r="X38">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Y38">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.4166666666666667</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="AA38">
-        <v>0.7142857142857143</v>
+        <v>0.64</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -3443,58 +3515,70 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N39" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="O39" t="s">
-        <v>116</v>
-      </c>
-      <c r="P39" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>136</v>
+      </c>
+      <c r="R39" t="s">
+        <v>146</v>
+      </c>
+      <c r="S39" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" t="s">
+        <v>154</v>
+      </c>
+      <c r="U39" t="s">
+        <v>157</v>
       </c>
       <c r="X39">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Y39">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="Z39">
-        <v>0.3125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3505,55 +3589,58 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>4</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M40" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="N40" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O40" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="P40" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>135</v>
       </c>
       <c r="X40">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Y40">
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AA40">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -3567,58 +3654,70 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>104</v>
+      </c>
+      <c r="M41" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" t="s">
+        <v>146</v>
+      </c>
+      <c r="S41" t="s">
+        <v>151</v>
+      </c>
+      <c r="T41" t="s">
+        <v>152</v>
+      </c>
+      <c r="U41" t="s">
+        <v>155</v>
+      </c>
+      <c r="X41">
+        <v>28</v>
+      </c>
+      <c r="Y41">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="Z41">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="AA41">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="AB41">
         <v>80</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
-      <c r="L41" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" t="s">
-        <v>97</v>
-      </c>
-      <c r="N41" t="s">
-        <v>115</v>
-      </c>
-      <c r="O41" t="s">
-        <v>116</v>
-      </c>
-      <c r="X41">
-        <v>3</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>0.375</v>
-      </c>
-      <c r="AA41">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -3629,58 +3728,70 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="N42" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>136</v>
+      </c>
+      <c r="R42" t="s">
+        <v>149</v>
+      </c>
+      <c r="S42" t="s">
+        <v>151</v>
+      </c>
+      <c r="T42" t="s">
+        <v>152</v>
+      </c>
+      <c r="U42" t="s">
+        <v>155</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Y42">
         <v>1</v>
       </c>
       <c r="Z42">
-        <v>0.3333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AA42">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -3694,54 +3805,574 @@
         <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" t="s">
+        <v>121</v>
+      </c>
+      <c r="O43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P43" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>136</v>
+      </c>
+      <c r="R43" t="s">
+        <v>146</v>
+      </c>
+      <c r="S43" t="s">
+        <v>151</v>
+      </c>
+      <c r="T43" t="s">
+        <v>153</v>
+      </c>
+      <c r="U43" t="s">
+        <v>156</v>
+      </c>
+      <c r="V43" t="s">
+        <v>136</v>
+      </c>
+      <c r="X43">
+        <v>19</v>
+      </c>
+      <c r="Y43">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="Z43">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="AA43">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="AB43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>135</v>
+      </c>
+      <c r="X44">
+        <v>14</v>
+      </c>
+      <c r="Y44">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="Z44">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="AA44">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="H43">
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N45" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" t="s">
+        <v>129</v>
+      </c>
+      <c r="P45" t="s">
+        <v>135</v>
+      </c>
+      <c r="X45">
+        <v>12</v>
+      </c>
+      <c r="Y45">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Z45">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="AA45">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46" t="s">
+        <v>106</v>
+      </c>
+      <c r="M46" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" t="s">
+        <v>129</v>
+      </c>
+      <c r="X46">
+        <v>14</v>
+      </c>
+      <c r="Y46">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z46">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AA46">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
+      <c r="J47">
         <v>1</v>
       </c>
-      <c r="L43" t="s">
-        <v>97</v>
-      </c>
-      <c r="M43" t="s">
-        <v>97</v>
-      </c>
-      <c r="N43" t="s">
-        <v>108</v>
-      </c>
-      <c r="O43" t="s">
-        <v>116</v>
-      </c>
-      <c r="X43">
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" t="s">
+        <v>129</v>
+      </c>
+      <c r="P47" t="s">
+        <v>135</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>0.625</v>
+      </c>
+      <c r="Z47">
+        <v>0.3125</v>
+      </c>
+      <c r="AA47">
         <v>1</v>
       </c>
-      <c r="Y43">
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M48" t="s">
+        <v>111</v>
+      </c>
+      <c r="N48" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48" t="s">
+        <v>129</v>
+      </c>
+      <c r="P48" t="s">
+        <v>135</v>
+      </c>
+      <c r="X48">
+        <v>4</v>
+      </c>
+      <c r="Y48">
         <v>1</v>
       </c>
-      <c r="Z43">
+      <c r="Z48">
+        <v>0.4</v>
+      </c>
+      <c r="AA48">
+        <v>1.5</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>106</v>
+      </c>
+      <c r="M49" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" t="s">
+        <v>127</v>
+      </c>
+      <c r="O49" t="s">
+        <v>129</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>0.375</v>
+      </c>
+      <c r="AA49">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>106</v>
+      </c>
+      <c r="M50" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" t="s">
+        <v>121</v>
+      </c>
+      <c r="O50" t="s">
+        <v>129</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA43">
+      <c r="AA50">
         <v>2</v>
       </c>
-      <c r="AB43">
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>106</v>
+      </c>
+      <c r="M51" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" t="s">
+        <v>121</v>
+      </c>
+      <c r="O51" t="s">
+        <v>129</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
         <v>0</v>
       </c>
     </row>
